--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Symbols</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>2016 Dividends</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>Telecommunication</t>
   </si>
 </sst>
 </file>
@@ -552,8 +561,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,8 +650,12 @@
         <v>20</v>
       </c>
       <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="2"/>
+      <c r="V1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="2"/>
@@ -693,8 +706,12 @@
       <c r="T2" s="21">
         <v>840.48</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="21"/>
+      <c r="V2" s="4">
+        <v>42629</v>
+      </c>
+      <c r="W2" s="21">
+        <v>1078.1099999999999</v>
+      </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="21"/>
       <c r="AB2" s="4"/>
@@ -702,10 +719,117 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W3" s="5"/>
       <c r="Z3" s="21"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W39" s="5"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
@@ -736,7 +860,10 @@
         <f>SUM(T2:T39)</f>
         <v>840.48</v>
       </c>
-      <c r="W40" s="21"/>
+      <c r="W40" s="21">
+        <f>SUM(W2:W39)</f>
+        <v>1078.1099999999999</v>
+      </c>
       <c r="Z40" s="21"/>
       <c r="AC40" s="21"/>
     </row>
@@ -1353,17 +1480,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1968,75 +2095,148 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="20">
-        <f>SUM(G2:G8)</f>
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6">
+        <v>27</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" ref="E9" si="4">V9/D9</f>
+        <v>39.93</v>
+      </c>
+      <c r="F9" s="7">
+        <f>'Initial Buys'!W40</f>
+        <v>1078.1099999999999</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" ref="T9" si="5">SUM(H9:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" ref="U9" si="6">SUM(G9:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <f t="shared" ref="V9" si="7">SUM(F9, U9)</f>
+        <v>1078.1099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="20">
+        <f>SUM(G2:G9)</f>
         <v>30.740000000000002</v>
       </c>
-      <c r="H9" s="27">
-        <f>SUM(H2:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" ref="I9:S9" si="4">SUM(I2:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="4"/>
+      <c r="H10" s="27">
+        <f>SUM(H2:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f>SUM(I2:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <f>SUM(J2:J9)</f>
         <v>31.95</v>
       </c>
-      <c r="K9" s="20">
-        <f t="shared" si="4"/>
+      <c r="K10" s="20">
+        <f>SUM(K2:K9)</f>
         <v>7.66</v>
       </c>
-      <c r="L9" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" si="4"/>
+      <c r="L10" s="27">
+        <f>SUM(L2:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f>SUM(M2:M9)</f>
         <v>39.5</v>
       </c>
-      <c r="N9" s="27">
-        <f t="shared" si="4"/>
+      <c r="N10" s="27">
+        <f>SUM(N2:N9)</f>
         <v>7.82</v>
       </c>
-      <c r="O9" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <f t="shared" si="4"/>
+      <c r="O10" s="20">
+        <f>SUM(O2:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f>SUM(P2:P9)</f>
         <v>23.04</v>
       </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="20">
-        <f>SUM(T2:T8)</f>
+      <c r="Q10" s="20">
+        <f>SUM(Q2:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
+        <f>SUM(R2:R9)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f>SUM(S2:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f>SUM(T2:T9)</f>
         <v>109.97</v>
       </c>
-      <c r="U9" s="20">
-        <f>SUM(U2:U8)</f>
+      <c r="U10" s="20">
+        <f>SUM(U2:U9)</f>
         <v>140.70999999999998</v>
       </c>
-      <c r="V9" s="22">
-        <f>SUM(V2:V8)</f>
-        <v>5858.03</v>
+      <c r="V10" s="22">
+        <f>SUM(V2:V9)</f>
+        <v>6936.1399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,11 +2031,11 @@
         <v>22</v>
       </c>
       <c r="D8" s="8">
-        <v>18.027999999999999</v>
+        <v>18.366</v>
       </c>
       <c r="E8" s="24">
         <f t="shared" si="0"/>
-        <v>49.333259374306635</v>
+        <v>49.348252205161714</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!T40</f>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="28">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="Q8" s="26">
         <v>0</v>
@@ -2083,15 +2083,15 @@
       </c>
       <c r="T8" s="18">
         <f t="shared" si="1"/>
-        <v>32.92</v>
+        <v>49.870000000000005</v>
       </c>
       <c r="U8" s="18">
         <f t="shared" si="2"/>
-        <v>48.899999999999991</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>889.38</v>
+        <v>906.33</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2175,68 +2175,68 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="20">
-        <f>SUM(G2:G9)</f>
+        <f t="shared" ref="G10:V10" si="8">SUM(G2:G9)</f>
         <v>30.740000000000002</v>
       </c>
       <c r="H10" s="27">
-        <f>SUM(H2:H9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f>SUM(I2:I9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J10" s="27">
-        <f>SUM(J2:J9)</f>
+        <f t="shared" si="8"/>
         <v>31.95</v>
       </c>
       <c r="K10" s="20">
-        <f>SUM(K2:K9)</f>
+        <f t="shared" si="8"/>
         <v>7.66</v>
       </c>
       <c r="L10" s="27">
-        <f>SUM(L2:L9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <f>SUM(M2:M9)</f>
+        <f t="shared" si="8"/>
         <v>39.5</v>
       </c>
       <c r="N10" s="27">
-        <f>SUM(N2:N9)</f>
+        <f t="shared" si="8"/>
         <v>7.82</v>
       </c>
       <c r="O10" s="20">
-        <f>SUM(O2:O9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P10" s="27">
-        <f>SUM(P2:P9)</f>
-        <v>23.04</v>
+        <f t="shared" si="8"/>
+        <v>39.989999999999995</v>
       </c>
       <c r="Q10" s="20">
-        <f>SUM(Q2:Q9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R10" s="27">
-        <f>SUM(R2:R9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="20">
-        <f>SUM(S2:S9)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T10" s="20">
-        <f>SUM(T2:T9)</f>
-        <v>109.97</v>
+        <f t="shared" si="8"/>
+        <v>126.92</v>
       </c>
       <c r="U10" s="20">
-        <f>SUM(U2:U9)</f>
-        <v>140.70999999999998</v>
+        <f t="shared" si="8"/>
+        <v>157.66</v>
       </c>
       <c r="V10" s="22">
-        <f>SUM(V2:V9)</f>
-        <v>6936.1399999999994</v>
+        <f t="shared" si="8"/>
+        <v>6953.0899999999992</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E8" s="24">
         <f t="shared" si="0"/>
-        <v>49.333259374306635</v>
+        <v>50.273463501220327</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!T40</f>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="G8" s="18">
         <f>'2016'!U8</f>
-        <v>48.899999999999991</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="H8" s="28">
         <v>0</v>
@@ -2857,11 +2857,11 @@
       </c>
       <c r="U8" s="18">
         <f t="shared" si="2"/>
-        <v>48.899999999999991</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>889.38</v>
+        <v>906.33</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="20">
         <f>SUM(G2:G8)</f>
-        <v>140.70999999999998</v>
+        <v>157.66</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H2:H8)</f>
@@ -2929,11 +2929,11 @@
       </c>
       <c r="U9" s="20">
         <f>SUM(U2:U8)</f>
-        <v>140.70999999999998</v>
+        <v>157.66</v>
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>5858.03</v>
+        <v>5874.98</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -371,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,42 +599,42 @@
       <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -663,7 +697,7 @@
       <c r="AC1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42625</v>
       </c>
@@ -718,120 +752,120 @@
       <c r="AC2" s="21"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W3" s="5"/>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="23:23" x14ac:dyDescent="0.3">
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B40" s="21">
         <f>SUM(B2:B39)</f>
         <v>930.33</v>
@@ -882,16 +916,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -953,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>930.33</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1117,7 @@
         <v>760.17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1182,7 @@
         <v>1028.3899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>866.58</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1278,7 +1312,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1377,7 @@
         <v>494.19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1442,7 @@
         <v>856.46</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1483,32 +1517,32 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1684,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +1758,7 @@
         <v>773.53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +1832,7 @@
         <v>1052.24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -1809,11 +1843,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>22.515000000000001</v>
+        <v>22.701000000000001</v>
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>39.176548967355096</v>
+        <v>39.202678296110307</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
@@ -1851,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="26">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="R5" s="28">
         <v>0</v>
@@ -1861,18 +1895,18 @@
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
-        <v>15.48</v>
+        <v>23.36</v>
       </c>
       <c r="U5" s="19">
         <f t="shared" si="2"/>
-        <v>22.740000000000002</v>
+        <v>30.62</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>882.06000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>889.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1980,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2054,7 @@
         <v>494.19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -2094,7 +2128,7 @@
         <v>906.33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -2167,7 +2201,7 @@
         <v>1078.1099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2216,7 +2250,7 @@
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="8"/>
@@ -2228,15 +2262,15 @@
       </c>
       <c r="T10" s="20">
         <f t="shared" si="8"/>
-        <v>126.92</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="8"/>
-        <v>157.66</v>
+        <v>165.54</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="8"/>
-        <v>6953.0899999999992</v>
+        <v>6960.9699999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2254,31 +2288,31 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2454,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +2528,7 @@
         <v>773.53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2602,7 @@
         <v>1052.24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -2583,7 +2617,7 @@
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>39.176548967355096</v>
+        <v>39.52653786364646</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
@@ -2591,7 +2625,7 @@
       </c>
       <c r="G5" s="19">
         <f>'2016'!U5</f>
-        <v>22.740000000000002</v>
+        <v>30.62</v>
       </c>
       <c r="H5" s="28">
         <v>0</v>
@@ -2635,14 +2669,14 @@
       </c>
       <c r="U5" s="19">
         <f t="shared" si="2"/>
-        <v>22.740000000000002</v>
+        <v>30.62</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>882.06000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>889.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -2716,7 +2750,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2824,7 @@
         <v>494.19</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2898,7 @@
         <v>906.33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2873,7 +2907,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="20">
         <f>SUM(G2:G8)</f>
-        <v>157.66</v>
+        <v>165.54</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H2:H8)</f>
@@ -2929,11 +2963,11 @@
       </c>
       <c r="U9" s="20">
         <f>SUM(U2:U8)</f>
-        <v>157.66</v>
+        <v>165.54</v>
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>5874.98</v>
+        <v>5882.86</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -371,23 +371,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,45 +562,45 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.109375" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.44140625" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -697,7 +663,7 @@
       <c r="AC1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42625</v>
       </c>
@@ -752,120 +718,125 @@
       <c r="AC2" s="21"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="W3" s="5"/>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V3" s="4">
+        <v>42667</v>
+      </c>
+      <c r="W3" s="21">
+        <v>654.66</v>
+      </c>
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <f>SUM(B2:B39)</f>
         <v>930.33</v>
@@ -896,7 +867,7 @@
       </c>
       <c r="W40" s="21">
         <f>SUM(W2:W39)</f>
-        <v>1078.1099999999999</v>
+        <v>1732.77</v>
       </c>
       <c r="Z40" s="21"/>
       <c r="AC40" s="21"/>
@@ -916,16 +887,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -987,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1023,7 @@
         <v>930.33</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1088,7 @@
         <v>760.17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1153,7 @@
         <v>1028.3899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -1247,7 +1218,7 @@
         <v>866.58</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1283,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1348,7 @@
         <v>494.19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -1442,7 +1413,7 @@
         <v>856.46</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1517,32 +1488,32 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1655,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1729,7 @@
         <v>773.53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +1803,7 @@
         <v>1052.24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1877,7 @@
         <v>889.94</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1951,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1991,11 +1962,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>5</v>
+        <v>5.0540000000000003</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>98.837999999999994</v>
+        <v>98.810842896715471</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!Q40</f>
@@ -2033,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="26">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="R7" s="28">
         <v>0</v>
@@ -2043,18 +2014,18 @@
       </c>
       <c r="T7" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="V7" s="17">
         <f t="shared" si="3"/>
-        <v>494.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>499.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +2099,7 @@
         <v>906.33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -2139,15 +2110,15 @@
         <v>32</v>
       </c>
       <c r="D9" s="6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" ref="E9" si="4">V9/D9</f>
-        <v>39.93</v>
+        <v>38.506</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!W40</f>
-        <v>1078.1099999999999</v>
+        <v>1732.77</v>
       </c>
       <c r="G9" s="19">
         <v>0</v>
@@ -2198,10 +2169,10 @@
       </c>
       <c r="V9" s="17">
         <f t="shared" ref="V9" si="7">SUM(F9, U9)</f>
-        <v>1078.1099999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1732.77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -2250,7 +2221,7 @@
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="8"/>
-        <v>7.88</v>
+        <v>13.08</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="8"/>
@@ -2262,15 +2233,15 @@
       </c>
       <c r="T10" s="20">
         <f t="shared" si="8"/>
-        <v>134.80000000000001</v>
+        <v>140</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="8"/>
-        <v>165.54</v>
+        <v>170.74</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="8"/>
-        <v>6960.9699999999993</v>
+        <v>7620.83</v>
       </c>
     </row>
   </sheetData>
@@ -2288,31 +2259,31 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2454,7 +2425,7 @@
         <v>954.69</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2499,7 @@
         <v>773.53</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -2602,7 +2573,7 @@
         <v>1052.24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -2676,7 +2647,7 @@
         <v>889.94</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
@@ -2750,7 +2721,7 @@
         <v>811.94</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -2765,7 +2736,7 @@
       </c>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>98.837999999999994</v>
+        <v>99.878</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!Q40</f>
@@ -2773,7 +2744,7 @@
       </c>
       <c r="G7" s="19">
         <f>'2016'!U7</f>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H7" s="28">
         <v>0</v>
@@ -2817,14 +2788,14 @@
       </c>
       <c r="U7" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="V7" s="17">
         <f t="shared" si="3"/>
-        <v>494.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>499.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
@@ -2898,7 +2869,7 @@
         <v>906.33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2907,7 +2878,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="20">
         <f>SUM(G2:G8)</f>
-        <v>165.54</v>
+        <v>170.74</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H2:H8)</f>
@@ -2963,11 +2934,11 @@
       </c>
       <c r="U9" s="20">
         <f>SUM(U2:U8)</f>
-        <v>165.54</v>
+        <v>170.74</v>
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>5882.86</v>
+        <v>5888.06</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -371,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1488,7 +1522,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -596,7 +596,7 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,8 +610,8 @@
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
@@ -753,6 +753,12 @@
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>42696</v>
+      </c>
+      <c r="K3">
+        <v>703.29</v>
+      </c>
       <c r="V3" s="4">
         <v>42667</v>
       </c>
@@ -885,7 +891,7 @@
       </c>
       <c r="K40" s="21">
         <f>SUM(K2:K39)</f>
-        <v>859.32</v>
+        <v>1562.6100000000001</v>
       </c>
       <c r="N40" s="21">
         <f>SUM(N2:N39)</f>
@@ -1522,7 +1528,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,15 +1854,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>22.701000000000001</v>
+        <v>39.701000000000001</v>
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>39.202678296110307</v>
+        <v>40.130727185713205</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
-        <v>859.32</v>
+        <v>1562.6100000000001</v>
       </c>
       <c r="G5" s="19">
         <f>'2015'!S5</f>
@@ -1908,7 +1914,7 @@
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>889.94</v>
+        <v>1593.23</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2275,7 +2281,7 @@
       </c>
       <c r="V10" s="22">
         <f t="shared" si="8"/>
-        <v>7620.83</v>
+        <v>8324.1200000000008</v>
       </c>
     </row>
   </sheetData>
@@ -2622,11 +2628,11 @@
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>39.52653786364646</v>
+        <v>70.763046857650451</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
-        <v>859.32</v>
+        <v>1562.6100000000001</v>
       </c>
       <c r="G5" s="19">
         <f>'2016'!U5</f>
@@ -2678,7 +2684,7 @@
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>889.94</v>
+        <v>1593.23</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2972,7 +2978,7 @@
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>5888.06</v>
+        <v>6591.3500000000013</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -371,23 +371,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,23 +406,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1528,7 +1494,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,11 +1598,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>27.375</v>
+        <v>27.56</v>
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E8" si="0">V2/D2</f>
-        <v>34.87452054794521</v>
+        <v>34.937590711175616</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -1680,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="26">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="T2" s="18">
         <f t="shared" ref="T2:T8" si="1">SUM(H2:S2)</f>
-        <v>24.36</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="U2" s="18">
         <f t="shared" ref="U2:U8" si="2">SUM(G2:S2)</f>
-        <v>24.36</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="V2" s="16">
         <f t="shared" ref="V2:V8" si="3">SUM(F2, U2)</f>
-        <v>954.69</v>
+        <v>962.88</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1780,11 +1746,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>10.285</v>
+        <v>10.359</v>
       </c>
       <c r="E4" s="24">
         <f t="shared" si="0"/>
-        <v>102.3082158483228</v>
+        <v>102.37185056472633</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!H40</f>
@@ -1828,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="S4" s="26">
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="T4" s="18">
         <f t="shared" si="1"/>
-        <v>23.85</v>
+        <v>32.08</v>
       </c>
       <c r="U4" s="18">
         <f t="shared" si="2"/>
-        <v>31.35</v>
+        <v>39.58</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="3"/>
-        <v>1052.24</v>
+        <v>1060.47</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1928,11 +1894,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <v>25</v>
+        <v>25.088999999999999</v>
       </c>
       <c r="E6" s="24">
         <f t="shared" si="0"/>
-        <v>32.477600000000002</v>
+        <v>32.481565626370127</v>
       </c>
       <c r="F6" s="9">
         <f>'Initial Buys'!N40</f>
@@ -1976,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="S6" s="26">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="U6" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="V6" s="16">
         <f t="shared" si="3"/>
-        <v>811.94</v>
+        <v>814.93000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2269,19 +2235,19 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.410000000000004</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>159.41</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="8"/>
-        <v>170.74</v>
+        <v>190.14999999999998</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="8"/>
-        <v>8324.1200000000008</v>
+        <v>8343.5300000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2372,7 @@
       </c>
       <c r="E2" s="24">
         <f t="shared" ref="E2:E8" si="0">V2/D2</f>
-        <v>34.87452054794521</v>
+        <v>35.17369863013699</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -2414,7 +2380,7 @@
       </c>
       <c r="G2" s="18">
         <f>'2016'!U2</f>
-        <v>24.36</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="H2" s="28">
         <v>0</v>
@@ -2458,11 +2424,11 @@
       </c>
       <c r="U2" s="18">
         <f t="shared" ref="U2:U8" si="2">SUM(G2:S2)</f>
-        <v>24.36</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="V2" s="16">
         <f t="shared" ref="V2:V8" si="3">SUM(F2, U2)</f>
-        <v>954.69</v>
+        <v>962.88</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2554,7 +2520,7 @@
       </c>
       <c r="E4" s="24">
         <f t="shared" si="0"/>
-        <v>102.3082158483228</v>
+        <v>103.10841030627127</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!H40</f>
@@ -2562,7 +2528,7 @@
       </c>
       <c r="G4" s="18">
         <f>'2016'!U4</f>
-        <v>31.35</v>
+        <v>39.58</v>
       </c>
       <c r="H4" s="28">
         <v>0</v>
@@ -2606,11 +2572,11 @@
       </c>
       <c r="U4" s="18">
         <f t="shared" si="2"/>
-        <v>31.35</v>
+        <v>39.58</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="3"/>
-        <v>1052.24</v>
+        <v>1060.47</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2702,7 +2668,7 @@
       </c>
       <c r="E6" s="24">
         <f t="shared" si="0"/>
-        <v>32.477600000000002</v>
+        <v>32.597200000000001</v>
       </c>
       <c r="F6" s="9">
         <f>'Initial Buys'!N40</f>
@@ -2710,7 +2676,7 @@
       </c>
       <c r="G6" s="18">
         <f>'2016'!U6</f>
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="H6" s="28">
         <v>0</v>
@@ -2754,11 +2720,11 @@
       </c>
       <c r="U6" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="V6" s="16">
         <f t="shared" si="3"/>
-        <v>811.94</v>
+        <v>814.93000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2918,7 +2884,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="20">
         <f>SUM(G2:G8)</f>
-        <v>170.74</v>
+        <v>190.14999999999998</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H2:H8)</f>
@@ -2974,11 +2940,11 @@
       </c>
       <c r="U9" s="20">
         <f>SUM(U2:U8)</f>
-        <v>170.74</v>
+        <v>190.14999999999998</v>
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>6591.3500000000013</v>
+        <v>6610.7600000000011</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -371,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,7 +1528,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,11 +1706,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.252000000000001</v>
+        <v>14.372999999999999</v>
       </c>
       <c r="E3" s="25">
         <f t="shared" si="0"/>
-        <v>54.275189447095137</v>
+        <v>54.294162666110068</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -1720,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="26">
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="T3" s="19">
         <f t="shared" si="1"/>
-        <v>13.36</v>
+        <v>20.2</v>
       </c>
       <c r="U3" s="19">
         <f t="shared" si="2"/>
-        <v>13.36</v>
+        <v>20.2</v>
       </c>
       <c r="V3" s="17">
         <f t="shared" si="3"/>
-        <v>773.53</v>
+        <v>780.37</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1820,11 +1854,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>39.701000000000001</v>
+        <v>40.033000000000001</v>
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>40.130727185713205</v>
+        <v>40.145130267529289</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
@@ -1868,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="S5" s="26">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
-        <v>23.36</v>
+        <v>37.26</v>
       </c>
       <c r="U5" s="19">
         <f t="shared" si="2"/>
-        <v>30.62</v>
+        <v>44.52</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>1593.23</v>
+        <v>1607.13</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2042,11 +2076,11 @@
         <v>22</v>
       </c>
       <c r="D8" s="8">
-        <v>18.366</v>
+        <v>18.715</v>
       </c>
       <c r="E8" s="24">
         <f t="shared" si="0"/>
-        <v>49.348252205161714</v>
+        <v>49.350253807106604</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!T40</f>
@@ -2090,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="26">
-        <v>0</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="1"/>
-        <v>49.870000000000005</v>
+        <v>67.13000000000001</v>
       </c>
       <c r="U8" s="18">
         <f t="shared" si="2"/>
-        <v>65.849999999999994</v>
+        <v>83.11</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>906.33</v>
+        <v>923.59</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2235,19 +2269,19 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="8"/>
-        <v>19.410000000000004</v>
+        <v>57.41</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="8"/>
-        <v>159.41</v>
+        <v>197.41000000000003</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="8"/>
-        <v>190.14999999999998</v>
+        <v>228.14999999999998</v>
       </c>
       <c r="V10" s="22">
         <f t="shared" si="8"/>
-        <v>8343.5300000000007</v>
+        <v>8381.5300000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2480,7 @@
       </c>
       <c r="E3" s="25">
         <f t="shared" si="0"/>
-        <v>54.275189447095137</v>
+        <v>54.755122088127983</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2454,7 +2488,7 @@
       </c>
       <c r="G3" s="19">
         <f>'2016'!U3</f>
-        <v>13.36</v>
+        <v>20.2</v>
       </c>
       <c r="H3" s="28">
         <v>0</v>
@@ -2498,11 +2532,11 @@
       </c>
       <c r="U3" s="19">
         <f t="shared" si="2"/>
-        <v>13.36</v>
+        <v>20.2</v>
       </c>
       <c r="V3" s="17">
         <f t="shared" si="3"/>
-        <v>773.53</v>
+        <v>780.37</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2594,7 +2628,7 @@
       </c>
       <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>70.763046857650451</v>
+        <v>71.380413057961363</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
@@ -2602,7 +2636,7 @@
       </c>
       <c r="G5" s="19">
         <f>'2016'!U5</f>
-        <v>30.62</v>
+        <v>44.52</v>
       </c>
       <c r="H5" s="28">
         <v>0</v>
@@ -2646,11 +2680,11 @@
       </c>
       <c r="U5" s="19">
         <f t="shared" si="2"/>
-        <v>30.62</v>
+        <v>44.52</v>
       </c>
       <c r="V5" s="17">
         <f t="shared" si="3"/>
-        <v>1593.23</v>
+        <v>1607.13</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2816,7 +2850,7 @@
       </c>
       <c r="E8" s="24">
         <f t="shared" si="0"/>
-        <v>50.273463501220327</v>
+        <v>51.230863101841585</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!T40</f>
@@ -2824,7 +2858,7 @@
       </c>
       <c r="G8" s="18">
         <f>'2016'!U8</f>
-        <v>65.849999999999994</v>
+        <v>83.11</v>
       </c>
       <c r="H8" s="28">
         <v>0</v>
@@ -2868,11 +2902,11 @@
       </c>
       <c r="U8" s="18">
         <f t="shared" si="2"/>
-        <v>65.849999999999994</v>
+        <v>83.11</v>
       </c>
       <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>906.33</v>
+        <v>923.59</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2884,7 +2918,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="20">
         <f>SUM(G2:G8)</f>
-        <v>190.14999999999998</v>
+        <v>228.14999999999998</v>
       </c>
       <c r="H9" s="27">
         <f>SUM(H2:H8)</f>
@@ -2940,11 +2974,11 @@
       </c>
       <c r="U9" s="20">
         <f>SUM(U2:U8)</f>
-        <v>190.14999999999998</v>
+        <v>228.14999999999998</v>
       </c>
       <c r="V9" s="22">
         <f>SUM(V2:V8)</f>
-        <v>6610.7600000000011</v>
+        <v>6648.7600000000011</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>Symbols</t>
   </si>
@@ -126,6 +126,51 @@
   </si>
   <si>
     <t>Telecommunication</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Year Dividends</t>
+  </si>
+  <si>
+    <t>All Time Dividends</t>
+  </si>
+  <si>
+    <t>Prev All Time Dividends</t>
   </si>
 </sst>
 </file>
@@ -241,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,6 +324,8 @@
     <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +644,7 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +665,7 @@
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -760,6 +807,12 @@
       <c r="K3">
         <v>703.29</v>
       </c>
+      <c r="P3" s="4">
+        <v>42748</v>
+      </c>
+      <c r="Q3">
+        <v>546</v>
+      </c>
       <c r="V3" s="4">
         <v>42667</v>
       </c>
@@ -900,7 +953,7 @@
       </c>
       <c r="Q40" s="19">
         <f>SUM(Q2:Q39)</f>
-        <v>494.19</v>
+        <v>1040.19</v>
       </c>
       <c r="T40" s="19">
         <f>SUM(T2:T39)</f>
@@ -925,7 +978,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:S9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1586,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1611,7 @@
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,7 +1677,7 @@
         <v>29</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
@@ -2300,7 +2353,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2378,7 @@
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2349,49 +2402,49 @@
         <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="12">
-        <v>42370</v>
-      </c>
-      <c r="I1" s="12">
-        <v>42401</v>
-      </c>
-      <c r="J1" s="12">
-        <v>42430</v>
-      </c>
-      <c r="K1" s="12">
-        <v>42461</v>
-      </c>
-      <c r="L1" s="12">
-        <v>42491</v>
-      </c>
-      <c r="M1" s="12">
-        <v>42522</v>
-      </c>
-      <c r="N1" s="12">
-        <v>42552</v>
-      </c>
-      <c r="O1" s="12">
-        <v>42583</v>
-      </c>
-      <c r="P1" s="12">
-        <v>42614</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>42644</v>
-      </c>
-      <c r="R1" s="12">
-        <v>42675</v>
-      </c>
-      <c r="S1" s="12">
-        <v>42705</v>
+        <v>47</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>5</v>
@@ -2410,7 +2463,7 @@
       <c r="D2" s="8">
         <v>27.56</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="31">
         <f t="shared" ref="E2:E9" si="0">V2/D2</f>
         <v>34.937590711175616</v>
       </c>
@@ -2419,8 +2472,8 @@
         <v>930.33</v>
       </c>
       <c r="G2" s="17">
-        <f>'2015'!S2</f>
-        <v>0</v>
+        <f>'2016'!U2</f>
+        <v>32.549999999999997</v>
       </c>
       <c r="H2" s="25">
         <v>0</v>
@@ -2429,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="25">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
@@ -2438,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="24">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -2447,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="25">
-        <v>8.16</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="24">
         <v>0</v>
@@ -2456,11 +2509,11 @@
         <v>0</v>
       </c>
       <c r="S2" s="24">
-        <v>8.19</v>
+        <v>0</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" ref="T2:T9" si="1">SUM(H2:S2)</f>
-        <v>32.549999999999997</v>
+        <v>0</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" ref="U2:U9" si="2">SUM(G2:S2)</f>
@@ -2484,7 +2537,7 @@
       <c r="D3" s="6">
         <v>14.372999999999999</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="32">
         <f t="shared" si="0"/>
         <v>54.294162666110068</v>
       </c>
@@ -2493,8 +2546,8 @@
         <v>760.17</v>
       </c>
       <c r="G3" s="18">
-        <f>'2015'!S3</f>
-        <v>0</v>
+        <f>'2016'!U3</f>
+        <v>20.2</v>
       </c>
       <c r="H3" s="25">
         <v>0</v>
@@ -2512,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="24">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="N3" s="25">
         <v>0</v>
@@ -2521,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="25">
-        <v>6.71</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="24">
         <v>0</v>
@@ -2530,11 +2583,11 @@
         <v>0</v>
       </c>
       <c r="S3" s="24">
-        <v>6.84</v>
+        <v>0</v>
       </c>
       <c r="T3" s="18">
         <f t="shared" si="1"/>
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="18">
         <f t="shared" si="2"/>
@@ -2558,7 +2611,7 @@
       <c r="D4" s="8">
         <v>10.359</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="31">
         <f t="shared" si="0"/>
         <v>102.37185056472633</v>
       </c>
@@ -2567,8 +2620,8 @@
         <v>1020.89</v>
       </c>
       <c r="G4" s="17">
-        <f>'2015'!S4</f>
-        <v>7.5</v>
+        <f>'2016'!U4</f>
+        <v>39.58</v>
       </c>
       <c r="H4" s="25">
         <v>0</v>
@@ -2577,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="25">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="K4" s="24">
         <v>0</v>
@@ -2586,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="24">
-        <v>8.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="N4" s="25">
         <v>0</v>
@@ -2595,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="25">
-        <v>8.17</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="24">
         <v>0</v>
@@ -2604,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="S4" s="24">
-        <v>8.23</v>
+        <v>0</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="2"/>
@@ -2632,7 +2685,7 @@
       <c r="D5" s="6">
         <v>40.033000000000001</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
         <v>40.145130267529289</v>
       </c>
@@ -2641,8 +2694,8 @@
         <v>1562.6100000000001</v>
       </c>
       <c r="G5" s="18">
-        <f>'2015'!S5</f>
-        <v>7.26</v>
+        <f>'2016'!U5</f>
+        <v>44.52</v>
       </c>
       <c r="H5" s="25">
         <v>0</v>
@@ -2654,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="24">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="L5" s="25">
         <v>0</v>
@@ -2663,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="25">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="O5" s="24">
         <v>0</v>
@@ -2672,17 +2725,17 @@
         <v>0</v>
       </c>
       <c r="Q5" s="24">
-        <v>7.88</v>
+        <v>0</v>
       </c>
       <c r="R5" s="25">
         <v>0</v>
       </c>
       <c r="S5" s="24">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="T5" s="18">
         <f t="shared" si="1"/>
-        <v>37.26</v>
+        <v>0</v>
       </c>
       <c r="U5" s="18">
         <f t="shared" si="2"/>
@@ -2706,7 +2759,7 @@
       <c r="D6" s="8">
         <v>25.088999999999999</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>32.481565626370127</v>
       </c>
@@ -2715,8 +2768,8 @@
         <v>811.94</v>
       </c>
       <c r="G6" s="17">
-        <f>'2015'!S6</f>
-        <v>0</v>
+        <f>'2016'!U6</f>
+        <v>2.99</v>
       </c>
       <c r="H6" s="25">
         <v>0</v>
@@ -2752,11 +2805,11 @@
         <v>0</v>
       </c>
       <c r="S6" s="24">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="T6" s="17">
         <f t="shared" si="1"/>
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="U6" s="17">
         <f t="shared" si="2"/>
@@ -2778,22 +2831,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>5.0540000000000003</v>
-      </c>
-      <c r="E7" s="23">
+        <v>11.112</v>
+      </c>
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>98.810842896715471</v>
+        <v>94.550935925125998</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!Q40</f>
-        <v>494.19</v>
+        <v>1040.19</v>
       </c>
       <c r="G7" s="18">
-        <f>'2015'!S7</f>
-        <v>0</v>
+        <f>'2016'!U7</f>
+        <v>5.2</v>
       </c>
       <c r="H7" s="25">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="I7" s="24">
         <v>0</v>
@@ -2820,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="24">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="25">
         <v>0</v>
@@ -2830,15 +2883,15 @@
       </c>
       <c r="T7" s="18">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>5.26</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>10.46</v>
       </c>
       <c r="V7" s="16">
-        <f t="shared" si="3"/>
-        <v>499.39</v>
+        <f>SUM(F7, U7)</f>
+        <v>1050.6500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2854,7 +2907,7 @@
       <c r="D8" s="8">
         <v>18.715</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
         <v>49.350253807106604</v>
       </c>
@@ -2863,8 +2916,8 @@
         <v>840.48</v>
       </c>
       <c r="G8" s="17">
-        <f>'2015'!S8</f>
-        <v>15.98</v>
+        <f>'2016'!U8</f>
+        <v>83.11</v>
       </c>
       <c r="H8" s="25">
         <v>0</v>
@@ -2873,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="25">
-        <v>16.29</v>
+        <v>0</v>
       </c>
       <c r="K8" s="24">
         <v>0</v>
@@ -2882,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="24">
-        <v>16.63</v>
+        <v>0</v>
       </c>
       <c r="N8" s="25">
         <v>0</v>
@@ -2891,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="25">
-        <v>16.95</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="24">
         <v>0</v>
@@ -2900,11 +2953,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="24">
-        <v>17.260000000000002</v>
+        <v>0</v>
       </c>
       <c r="T8" s="17">
         <f t="shared" si="1"/>
-        <v>67.13000000000001</v>
+        <v>0</v>
       </c>
       <c r="U8" s="17">
         <f t="shared" si="2"/>
@@ -2928,7 +2981,7 @@
       <c r="D9" s="6">
         <v>45</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
         <v>38.506</v>
       </c>
@@ -2937,6 +2990,7 @@
         <v>1732.77</v>
       </c>
       <c r="G9" s="18">
+        <f>'2016'!U9</f>
         <v>0</v>
       </c>
       <c r="H9" s="25">
@@ -2996,15 +3050,15 @@
       <c r="E10" s="27"/>
       <c r="F10" s="28">
         <f>SUM(F2:F9)</f>
-        <v>8153.380000000001</v>
+        <v>8699.380000000001</v>
       </c>
       <c r="G10" s="30">
         <f t="shared" ref="G10:V10" si="4">SUM(G2:G9)</f>
-        <v>30.740000000000002</v>
+        <v>228.14999999999998</v>
       </c>
       <c r="H10" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="I10" s="30">
         <f t="shared" si="4"/>
@@ -3012,11 +3066,11 @@
       </c>
       <c r="J10" s="29">
         <f t="shared" si="4"/>
-        <v>31.95</v>
+        <v>0</v>
       </c>
       <c r="K10" s="30">
         <f t="shared" si="4"/>
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="L10" s="29">
         <f t="shared" si="4"/>
@@ -3024,11 +3078,11 @@
       </c>
       <c r="M10" s="30">
         <f t="shared" si="4"/>
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="29">
         <f t="shared" si="4"/>
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="O10" s="30">
         <f t="shared" si="4"/>
@@ -3036,11 +3090,11 @@
       </c>
       <c r="P10" s="29">
         <f t="shared" si="4"/>
-        <v>39.989999999999995</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="30">
         <f t="shared" si="4"/>
-        <v>13.08</v>
+        <v>0</v>
       </c>
       <c r="R10" s="29">
         <f t="shared" si="4"/>
@@ -3048,19 +3102,19 @@
       </c>
       <c r="S10" s="30">
         <f t="shared" si="4"/>
-        <v>57.41</v>
+        <v>0</v>
       </c>
       <c r="T10" s="30">
         <f t="shared" si="4"/>
-        <v>197.41000000000003</v>
+        <v>5.26</v>
       </c>
       <c r="U10" s="30">
         <f t="shared" si="4"/>
-        <v>228.14999999999998</v>
+        <v>233.41000000000003</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="4"/>
-        <v>8381.5300000000007</v>
+        <v>8932.7900000000009</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,9 +176,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -324,8 +325,8 @@
     <xf numFmtId="4" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,23 +420,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,23 +455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2353,7 +2320,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>Symbols</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Prev All Time Dividends</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Unilever</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,8 +712,12 @@
         <v>30</v>
       </c>
       <c r="X1" s="2"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2"/>
+      <c r="Y1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="2"/>
       <c r="AF1" s="2"/>
@@ -761,8 +771,12 @@
       <c r="W2" s="19">
         <v>1078.1099999999999</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="19"/>
+      <c r="Y2" s="4">
+        <v>42762</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>614.25</v>
+      </c>
       <c r="AB2" s="4"/>
       <c r="AC2" s="19"/>
       <c r="AF2" s="5"/>
@@ -930,7 +944,10 @@
         <f>SUM(W2:W39)</f>
         <v>1732.77</v>
       </c>
-      <c r="Z40" s="19"/>
+      <c r="Z40" s="19">
+        <f>SUM(Z2:Z39)</f>
+        <v>614.25</v>
+      </c>
       <c r="AC40" s="19"/>
     </row>
   </sheetData>
@@ -1553,7 +1570,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,10 +2334,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,78 +3027,151 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28">
-        <f>SUM(F2:F9)</f>
-        <v>8699.380000000001</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" ref="G10:V10" si="4">SUM(G2:G9)</f>
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>15</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" ref="E10" si="4">V10/D10</f>
+        <v>40.950000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <f>'Initial Buys'!Z2</f>
+        <v>614.25</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" ref="T10" si="5">SUM(H10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" ref="U10" si="6">SUM(G10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f t="shared" ref="V10" si="7">SUM(F10, U10)</f>
+        <v>614.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
+        <f>SUM(F2:F10)</f>
+        <v>9313.630000000001</v>
+      </c>
+      <c r="G11" s="30">
+        <f>SUM(G2:G10)</f>
         <v>228.14999999999998</v>
       </c>
-      <c r="H10" s="29">
-        <f t="shared" si="4"/>
+      <c r="H11" s="29">
+        <f>SUM(H2:H10)</f>
         <v>5.26</v>
       </c>
-      <c r="I10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
-        <f t="shared" si="4"/>
+      <c r="I11" s="30">
+        <f>SUM(I2:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="29">
+        <f>SUM(J2:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <f>SUM(K2:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <f>SUM(L2:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <f>SUM(M2:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <f>SUM(N2:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="30">
+        <f>SUM(O2:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <f>SUM(P2:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <f>SUM(Q2:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <f>SUM(R2:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="30">
+        <f>SUM(S2:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="30">
+        <f>SUM(T2:T10)</f>
         <v>5.26</v>
       </c>
-      <c r="U10" s="30">
-        <f t="shared" si="4"/>
+      <c r="U11" s="30">
+        <f>SUM(U2:U10)</f>
         <v>233.41000000000003</v>
       </c>
-      <c r="V10" s="20">
-        <f t="shared" si="4"/>
-        <v>8932.7900000000009</v>
+      <c r="V11" s="20">
+        <f>SUM(V2:V10)</f>
+        <v>9547.0400000000009</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,11 +2963,11 @@
         <v>32</v>
       </c>
       <c r="D9" s="6">
-        <v>45</v>
+        <v>45.524999999999999</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>38.506</v>
+        <v>38.546293245469521</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!W40</f>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="24">
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="J9" s="25">
         <v>0</v>
@@ -3015,15 +3015,15 @@
       </c>
       <c r="T9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="U9" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.05</v>
       </c>
       <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>1732.77</v>
+        <v>1754.82</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3106,72 +3106,72 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" ref="F11:V11" si="8">SUM(F2:F10)</f>
         <v>9313.630000000001</v>
       </c>
       <c r="G11" s="30">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="8"/>
         <v>228.14999999999998</v>
       </c>
       <c r="H11" s="29">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="8"/>
         <v>5.26</v>
       </c>
       <c r="I11" s="30">
-        <f>SUM(I2:I10)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>22.05</v>
       </c>
       <c r="J11" s="29">
-        <f>SUM(J2:J10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K11" s="30">
-        <f>SUM(K2:K10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L11" s="29">
-        <f>SUM(L2:L10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M11" s="30">
-        <f>SUM(M2:M10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N11" s="29">
-        <f>SUM(N2:N10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="30">
-        <f>SUM(O2:O10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P11" s="29">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q11" s="30">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R11" s="29">
-        <f>SUM(R2:R10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S11" s="30">
-        <f>SUM(S2:S10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T11" s="30">
-        <f>SUM(T2:T10)</f>
-        <v>5.26</v>
+        <f t="shared" si="8"/>
+        <v>27.310000000000002</v>
       </c>
       <c r="U11" s="30">
-        <f>SUM(U2:U10)</f>
-        <v>233.41000000000003</v>
+        <f t="shared" si="8"/>
+        <v>255.46000000000004</v>
       </c>
       <c r="V11" s="20">
-        <f>SUM(V2:V10)</f>
-        <v>9547.0400000000009</v>
+        <f t="shared" si="8"/>
+        <v>9569.09</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,11 +2741,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <v>25.088999999999999</v>
+        <v>25.18</v>
       </c>
       <c r="E6" s="31">
         <f t="shared" si="0"/>
-        <v>32.481565626370127</v>
+        <v>32.483717235901509</v>
       </c>
       <c r="F6" s="9">
         <f>'Initial Buys'!N40</f>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="25">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="K6" s="24">
         <v>0</v>
@@ -2793,15 +2793,15 @@
       </c>
       <c r="T6" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="U6" s="17">
         <f t="shared" si="2"/>
-        <v>2.99</v>
+        <v>6</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="3"/>
-        <v>814.93000000000006</v>
+        <v>817.94</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="J11" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="K11" s="30">
         <f t="shared" si="8"/>
@@ -3163,15 +3163,15 @@
       </c>
       <c r="T11" s="30">
         <f t="shared" si="8"/>
-        <v>27.310000000000002</v>
+        <v>30.32</v>
       </c>
       <c r="U11" s="30">
         <f t="shared" si="8"/>
-        <v>255.46000000000004</v>
+        <v>258.47000000000003</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="8"/>
-        <v>9569.09</v>
+        <v>9572.1</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,11 +2445,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>27.56</v>
+        <v>27.759</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E9" si="0">V2/D2</f>
-        <v>34.937590711175616</v>
+        <v>35.00486328758241</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="25">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="K2" s="24">
         <v>0</v>
@@ -2497,15 +2497,15 @@
       </c>
       <c r="T2" s="17">
         <f t="shared" ref="T2:T9" si="1">SUM(H2:S2)</f>
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" ref="U2:U9" si="2">SUM(G2:S2)</f>
-        <v>32.549999999999997</v>
+        <v>41.37</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V9" si="3">SUM(F2, U2)</f>
-        <v>962.88</v>
+        <v>971.7</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2519,11 +2519,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.372999999999999</v>
+        <v>14.448</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>54.294162666110068</v>
+        <v>54.489894795127348</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="25">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="K3" s="24">
         <v>0</v>
@@ -2571,15 +2571,15 @@
       </c>
       <c r="T3" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="U3" s="18">
         <f t="shared" si="2"/>
-        <v>20.2</v>
+        <v>27.1</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" si="3"/>
-        <v>780.37</v>
+        <v>787.27</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2593,11 +2593,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>10.359</v>
+        <v>10.425000000000001</v>
       </c>
       <c r="E4" s="31">
         <f t="shared" si="0"/>
-        <v>102.37185056472633</v>
+        <v>102.51894484412469</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!H40</f>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="25">
-        <v>0</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="K4" s="24">
         <v>0</v>
@@ -2645,15 +2645,15 @@
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="2"/>
-        <v>39.58</v>
+        <v>47.87</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" si="3"/>
-        <v>1060.47</v>
+        <v>1068.76</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="J11" s="29">
         <f t="shared" si="8"/>
-        <v>3.01</v>
+        <v>27.019999999999996</v>
       </c>
       <c r="K11" s="30">
         <f t="shared" si="8"/>
@@ -3163,15 +3163,15 @@
       </c>
       <c r="T11" s="30">
         <f t="shared" si="8"/>
-        <v>30.32</v>
+        <v>54.33</v>
       </c>
       <c r="U11" s="30">
         <f t="shared" si="8"/>
-        <v>258.47000000000003</v>
+        <v>282.48</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="8"/>
-        <v>9572.1</v>
+        <v>9596.11</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -426,6 +426,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +478,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2337,7 +2371,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,11 +3071,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="8">
-        <v>15</v>
+        <v>15.102</v>
       </c>
       <c r="E10" s="31">
         <f t="shared" ref="E10" si="4">V10/D10</f>
-        <v>40.950000000000003</v>
+        <v>41.009800026486559</v>
       </c>
       <c r="F10" s="9">
         <f>'Initial Buys'!Z2</f>
@@ -3057,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="25">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="K10" s="24">
         <v>0</v>
@@ -3088,15 +3122,15 @@
       </c>
       <c r="T10" s="17">
         <f t="shared" ref="T10" si="5">SUM(H10:S10)</f>
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="U10" s="17">
         <f t="shared" ref="U10" si="6">SUM(G10:S10)</f>
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" ref="V10" si="7">SUM(F10, U10)</f>
-        <v>614.25</v>
+        <v>619.33000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3123,7 +3157,7 @@
       </c>
       <c r="J11" s="29">
         <f t="shared" si="8"/>
-        <v>27.019999999999996</v>
+        <v>32.099999999999994</v>
       </c>
       <c r="K11" s="30">
         <f t="shared" si="8"/>
@@ -3163,15 +3197,15 @@
       </c>
       <c r="T11" s="30">
         <f t="shared" si="8"/>
-        <v>54.33</v>
+        <v>59.41</v>
       </c>
       <c r="U11" s="30">
         <f t="shared" si="8"/>
-        <v>282.48</v>
+        <v>287.56</v>
       </c>
       <c r="V11" s="20">
         <f t="shared" si="8"/>
-        <v>9596.11</v>
+        <v>9601.19</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>Symbols</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>Unilever</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>Target Corp</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>AT&amp;T Inc</t>
+  </si>
+  <si>
+    <t>Telemunication</t>
   </si>
 </sst>
 </file>
@@ -650,8 +665,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,8 +767,12 @@
       <c r="Z1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="2"/>
+      <c r="AB1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -811,8 +830,12 @@
       <c r="Z2" s="19">
         <v>614.25</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="19"/>
+      <c r="AB2" s="4">
+        <v>42818</v>
+      </c>
+      <c r="AC2" s="19">
+        <v>797.25</v>
+      </c>
       <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -982,7 +1005,10 @@
         <f>SUM(Z2:Z39)</f>
         <v>614.25</v>
       </c>
-      <c r="AC40" s="19"/>
+      <c r="AC40" s="19">
+        <f>SUM(AC2:AC39)</f>
+        <v>797.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -996,7 +1022,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,17 +2394,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2553,11 +2579,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.448</v>
+        <v>14.488</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>54.489894795127348</v>
+        <v>54.339453340695748</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2701,11 +2727,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>40.033000000000001</v>
+        <v>40.381999999999998</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>40.145130267529289</v>
+        <v>40.164924966569266</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!K40</f>
@@ -2725,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="24">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="L5" s="25">
         <v>0</v>
@@ -2753,15 +2779,15 @@
       </c>
       <c r="T5" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="U5" s="18">
         <f t="shared" si="2"/>
-        <v>44.52</v>
+        <v>59.330000000000005</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" si="3"/>
-        <v>1607.13</v>
+        <v>1621.94</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2923,11 +2949,11 @@
         <v>22</v>
       </c>
       <c r="D8" s="8">
-        <v>18.715</v>
+        <v>19.052</v>
       </c>
       <c r="E8" s="31">
         <f t="shared" si="0"/>
-        <v>49.350253807106604</v>
+        <v>49.400587864791099</v>
       </c>
       <c r="F8" s="9">
         <f>'Initial Buys'!T40</f>
@@ -2944,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="25">
-        <v>0</v>
+        <v>17.59</v>
       </c>
       <c r="K8" s="24">
         <v>0</v>
@@ -2975,15 +3001,15 @@
       </c>
       <c r="T8" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17.59</v>
       </c>
       <c r="U8" s="17">
         <f t="shared" si="2"/>
-        <v>83.11</v>
+        <v>100.7</v>
       </c>
       <c r="V8" s="15">
         <f t="shared" si="3"/>
-        <v>923.59</v>
+        <v>941.18000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -2991,10 +3017,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D9" s="6">
         <v>45.524999999999999</v>
@@ -3062,24 +3088,24 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8">
-        <v>15.102</v>
+        <v>15</v>
       </c>
       <c r="E10" s="31">
         <f t="shared" ref="E10" si="4">V10/D10</f>
-        <v>41.009800026486559</v>
+        <v>53.15</v>
       </c>
       <c r="F10" s="9">
-        <f>'Initial Buys'!Z2</f>
-        <v>614.25</v>
+        <f>'Initial Buys'!AC40</f>
+        <v>797.25</v>
       </c>
       <c r="G10" s="17">
         <v>0</v>
@@ -3091,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="25">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="K10" s="24">
         <v>0</v>
@@ -3122,90 +3148,163 @@
       </c>
       <c r="T10" s="17">
         <f t="shared" ref="T10" si="5">SUM(H10:S10)</f>
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="U10" s="17">
         <f t="shared" ref="U10" si="6">SUM(G10:S10)</f>
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" ref="V10" si="7">SUM(F10, U10)</f>
+        <v>797.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>15.102</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" ref="E11" si="8">V11/D11</f>
+        <v>41.009800026486559</v>
+      </c>
+      <c r="F11" s="7">
+        <f>'Initial Buys'!Z40</f>
+        <v>614.25</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>5.08</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
+        <v>5.08</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
+        <v>5.08</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
         <v>619.33000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28">
-        <f t="shared" ref="F11:V11" si="8">SUM(F2:F10)</f>
-        <v>9313.630000000001</v>
-      </c>
-      <c r="G11" s="30">
-        <f t="shared" si="8"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
+        <f>SUM(F2:F11)</f>
+        <v>10110.880000000001</v>
+      </c>
+      <c r="G12" s="30">
+        <f>SUM(G2:G11)</f>
         <v>228.14999999999998</v>
       </c>
-      <c r="H11" s="29">
-        <f t="shared" si="8"/>
+      <c r="H12" s="29">
+        <f>SUM(H2:H11)</f>
         <v>5.26</v>
       </c>
-      <c r="I11" s="30">
-        <f t="shared" si="8"/>
+      <c r="I12" s="30">
+        <f>SUM(I2:I11)</f>
         <v>22.05</v>
       </c>
-      <c r="J11" s="29">
-        <f t="shared" si="8"/>
-        <v>32.099999999999994</v>
-      </c>
-      <c r="K11" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <f t="shared" si="8"/>
-        <v>59.41</v>
-      </c>
-      <c r="U11" s="30">
-        <f t="shared" si="8"/>
-        <v>287.56</v>
-      </c>
-      <c r="V11" s="20">
-        <f t="shared" si="8"/>
-        <v>9601.19</v>
+      <c r="J12" s="29">
+        <f>SUM(J2:J11)</f>
+        <v>49.69</v>
+      </c>
+      <c r="K12" s="30">
+        <f>SUM(K2:K11)</f>
+        <v>14.81</v>
+      </c>
+      <c r="L12" s="29">
+        <f>SUM(L2:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <f>SUM(M2:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <f>SUM(N2:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="30">
+        <f>SUM(O2:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <f>SUM(P2:P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
+        <f>SUM(Q2:Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>SUM(R2:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="30">
+        <f>SUM(S2:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="30">
+        <f>SUM(T2:T11)</f>
+        <v>91.809999999999988</v>
+      </c>
+      <c r="U12" s="30">
+        <f>SUM(U2:U11)</f>
+        <v>319.96000000000004</v>
+      </c>
+      <c r="V12" s="20">
+        <f>SUM(V2:V11)</f>
+        <v>10430.84</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -441,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -493,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2397,7 +2363,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,11 +2841,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>11.112</v>
+        <v>11.215</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>94.550935925125998</v>
+        <v>94.713330361123496</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!Q40</f>
@@ -2899,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="24">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="L7" s="25">
         <v>0</v>
@@ -2927,15 +2893,15 @@
       </c>
       <c r="T7" s="18">
         <f t="shared" si="1"/>
-        <v>5.26</v>
+        <v>16.82</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="2"/>
-        <v>10.46</v>
+        <v>22.020000000000003</v>
       </c>
       <c r="V7" s="16">
         <f>SUM(F7, U7)</f>
-        <v>1050.6500000000001</v>
+        <v>1062.21</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3239,72 +3205,72 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28">
-        <f>SUM(F2:F11)</f>
+        <f t="shared" ref="F12:V12" si="12">SUM(F2:F11)</f>
         <v>10110.880000000001</v>
       </c>
       <c r="G12" s="30">
-        <f>SUM(G2:G11)</f>
+        <f t="shared" si="12"/>
         <v>228.14999999999998</v>
       </c>
       <c r="H12" s="29">
-        <f>SUM(H2:H11)</f>
+        <f t="shared" si="12"/>
         <v>5.26</v>
       </c>
       <c r="I12" s="30">
-        <f>SUM(I2:I11)</f>
+        <f t="shared" si="12"/>
         <v>22.05</v>
       </c>
       <c r="J12" s="29">
-        <f>SUM(J2:J11)</f>
+        <f t="shared" si="12"/>
         <v>49.69</v>
       </c>
       <c r="K12" s="30">
-        <f>SUM(K2:K11)</f>
-        <v>14.81</v>
+        <f t="shared" si="12"/>
+        <v>26.37</v>
       </c>
       <c r="L12" s="29">
-        <f>SUM(L2:L11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M12" s="30">
-        <f>SUM(M2:M11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N12" s="29">
-        <f>SUM(N2:N11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O12" s="30">
-        <f>SUM(O2:O11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P12" s="29">
-        <f>SUM(P2:P11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q12" s="30">
-        <f>SUM(Q2:Q11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R12" s="29">
-        <f>SUM(R2:R11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S12" s="30">
-        <f>SUM(S2:S11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T12" s="30">
-        <f>SUM(T2:T11)</f>
-        <v>91.809999999999988</v>
+        <f t="shared" si="12"/>
+        <v>103.36999999999999</v>
       </c>
       <c r="U12" s="30">
-        <f>SUM(U2:U11)</f>
-        <v>319.96000000000004</v>
+        <f t="shared" si="12"/>
+        <v>331.52000000000004</v>
       </c>
       <c r="V12" s="20">
-        <f>SUM(V2:V11)</f>
-        <v>10430.84</v>
+        <f t="shared" si="12"/>
+        <v>10442.400000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -441,6 +441,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +493,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2363,7 +2397,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,11 +3023,11 @@
         <v>54</v>
       </c>
       <c r="D9" s="6">
-        <v>45.524999999999999</v>
+        <v>46.08</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>38.546293245469521</v>
+        <v>38.566189236111107</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!W40</f>
@@ -3016,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="25">
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="M9" s="24">
         <v>0</v>
@@ -3041,15 +3075,15 @@
       </c>
       <c r="T9" s="18">
         <f t="shared" si="1"/>
-        <v>22.05</v>
+        <v>44.36</v>
       </c>
       <c r="U9" s="18">
         <f t="shared" si="2"/>
-        <v>22.05</v>
+        <v>44.36</v>
       </c>
       <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>1754.82</v>
+        <v>1777.1299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3230,7 +3264,7 @@
       </c>
       <c r="L12" s="29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>22.31</v>
       </c>
       <c r="M12" s="30">
         <f t="shared" si="12"/>
@@ -3262,15 +3296,15 @@
       </c>
       <c r="T12" s="30">
         <f t="shared" si="12"/>
-        <v>103.36999999999999</v>
+        <v>125.67999999999999</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="12"/>
-        <v>331.52000000000004</v>
+        <v>353.83000000000004</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="12"/>
-        <v>10442.400000000001</v>
+        <v>10464.710000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -441,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -493,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2397,7 +2363,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,11 +2471,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>27.759</v>
+        <v>27.971</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E9" si="0">V2/D2</f>
-        <v>35.00486328758241</v>
+        <v>35.057023345607952</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -2535,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="24">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="N2" s="25">
         <v>0</v>
@@ -2557,15 +2523,15 @@
       </c>
       <c r="T2" s="17">
         <f t="shared" ref="T2:T9" si="1">SUM(H2:S2)</f>
-        <v>8.82</v>
+        <v>17.700000000000003</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" ref="U2:U9" si="2">SUM(G2:S2)</f>
-        <v>41.37</v>
+        <v>50.25</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V9" si="3">SUM(F2, U2)</f>
-        <v>971.7</v>
+        <v>980.58</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2579,11 +2545,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.488</v>
+        <v>14.606999999999999</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>54.339453340695748</v>
+        <v>54.372561100842056</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2609,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="24">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="N3" s="25">
         <v>0</v>
@@ -2631,15 +2597,15 @@
       </c>
       <c r="T3" s="18">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>13.850000000000001</v>
       </c>
       <c r="U3" s="18">
         <f t="shared" si="2"/>
-        <v>27.1</v>
+        <v>34.050000000000004</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" si="3"/>
-        <v>787.27</v>
+        <v>794.21999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2801,11 +2767,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <v>25.18</v>
+        <v>25.283000000000001</v>
       </c>
       <c r="E6" s="31">
         <f t="shared" si="0"/>
-        <v>32.483717235901509</v>
+        <v>32.47083020211209</v>
       </c>
       <c r="F6" s="9">
         <f>'Initial Buys'!N40</f>
@@ -2831,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="24">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="N6" s="25">
         <v>0</v>
@@ -2853,15 +2819,15 @@
       </c>
       <c r="T6" s="17">
         <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="U6" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9.02</v>
       </c>
       <c r="V6" s="15">
         <f t="shared" si="3"/>
-        <v>817.94</v>
+        <v>820.96</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3170,11 +3136,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="6">
-        <v>15.102</v>
+        <v>15.205</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" ref="E11" si="8">V11/D11</f>
-        <v>41.009800026486559</v>
+        <v>41.106872739230518</v>
       </c>
       <c r="F11" s="7">
         <f>'Initial Buys'!Z40</f>
@@ -3199,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="24">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="N11" s="25">
         <v>0</v>
@@ -3221,15 +3187,15 @@
       </c>
       <c r="T11" s="18">
         <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
-        <v>5.08</v>
+        <v>10.780000000000001</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
-        <v>5.08</v>
+        <v>10.780000000000001</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
-        <v>619.33000000000004</v>
+        <v>625.03</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3268,7 +3234,7 @@
       </c>
       <c r="M12" s="30">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>24.55</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="12"/>
@@ -3296,15 +3262,15 @@
       </c>
       <c r="T12" s="30">
         <f t="shared" si="12"/>
-        <v>125.67999999999999</v>
+        <v>150.22999999999999</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="12"/>
-        <v>353.83000000000004</v>
+        <v>378.38000000000011</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="12"/>
-        <v>10464.710000000001</v>
+        <v>10489.26</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2363,7 +2363,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,11 +3063,11 @@
         <v>52</v>
       </c>
       <c r="D10" s="8">
-        <v>15</v>
+        <v>15.164999999999999</v>
       </c>
       <c r="E10" s="31">
         <f t="shared" ref="E10" si="4">V10/D10</f>
-        <v>53.15</v>
+        <v>53.165182987141449</v>
       </c>
       <c r="F10" s="9">
         <f>'Initial Buys'!AC40</f>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N10" s="25">
         <v>0</v>
@@ -3114,15 +3114,15 @@
       </c>
       <c r="T10" s="17">
         <f t="shared" ref="T10" si="5">SUM(H10:S10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U10" s="17">
         <f t="shared" ref="U10" si="6">SUM(G10:S10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V10" s="15">
         <f t="shared" ref="V10" si="7">SUM(F10, U10)</f>
-        <v>797.25</v>
+        <v>806.25</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="M12" s="30">
         <f t="shared" si="12"/>
-        <v>24.55</v>
+        <v>33.550000000000004</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="12"/>
@@ -3262,15 +3262,15 @@
       </c>
       <c r="T12" s="30">
         <f t="shared" si="12"/>
-        <v>150.22999999999999</v>
+        <v>159.22999999999999</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="12"/>
-        <v>378.38000000000011</v>
+        <v>387.38000000000011</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="12"/>
-        <v>10489.26</v>
+        <v>10498.26</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2363,7 +2363,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,11 +2619,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>10.425000000000001</v>
+        <v>10.492000000000001</v>
       </c>
       <c r="E4" s="31">
         <f t="shared" si="0"/>
-        <v>102.51894484412469</v>
+        <v>102.69919939001143</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!H40</f>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="24">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="N4" s="25">
         <v>0</v>
@@ -2671,15 +2671,15 @@
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>8.2899999999999991</v>
+        <v>17.049999999999997</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="2"/>
-        <v>47.87</v>
+        <v>56.629999999999995</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" si="3"/>
-        <v>1068.76</v>
+        <v>1077.52</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="M12" s="30">
         <f t="shared" si="12"/>
-        <v>33.550000000000004</v>
+        <v>42.31</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="12"/>
@@ -3262,15 +3262,15 @@
       </c>
       <c r="T12" s="30">
         <f t="shared" si="12"/>
-        <v>159.22999999999999</v>
+        <v>167.98999999999998</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="12"/>
-        <v>387.38000000000011</v>
+        <v>396.1400000000001</v>
       </c>
       <c r="V12" s="20">
         <f t="shared" si="12"/>
-        <v>10498.26</v>
+        <v>10507.02</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Symbols</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Telemunication</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>General Mills Inc</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +301,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,6 +360,12 @@
     <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +649,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +684,7 @@
     <col min="27" max="27" width="6.5703125" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.140625" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.42578125" customWidth="1"/>
   </cols>
@@ -739,7 +758,12 @@
       <c r="AC1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="2"/>
+      <c r="AE1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -802,7 +826,12 @@
       <c r="AC2" s="19">
         <v>797.25</v>
       </c>
-      <c r="AF2" s="5"/>
+      <c r="AE2" s="4">
+        <v>42936</v>
+      </c>
+      <c r="AF2" s="19">
+        <v>594.54999999999995</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J3" s="4">
@@ -913,28 +942,28 @@
     <row r="32" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <f>SUM(B2:B39)</f>
         <v>930.33</v>
@@ -974,6 +1003,10 @@
       <c r="AC40" s="19">
         <f>SUM(AC2:AC39)</f>
         <v>797.25</v>
+      </c>
+      <c r="AF40" s="19">
+        <f>SUM(AF2:AF39)</f>
+        <v>594.54999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2360,10 +2393,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2507,7 @@
         <v>27.971</v>
       </c>
       <c r="E2" s="31">
-        <f t="shared" ref="E2:E9" si="0">V2/D2</f>
+        <f t="shared" ref="E2:E10" si="0">V2/D2</f>
         <v>35.057023345607952</v>
       </c>
       <c r="F2" s="9">
@@ -2522,15 +2555,15 @@
         <v>0</v>
       </c>
       <c r="T2" s="17">
-        <f t="shared" ref="T2:T9" si="1">SUM(H2:S2)</f>
+        <f t="shared" ref="T2:T10" si="1">SUM(H2:S2)</f>
         <v>17.700000000000003</v>
       </c>
       <c r="U2" s="17">
-        <f t="shared" ref="U2:U9" si="2">SUM(G2:S2)</f>
+        <f t="shared" ref="U2:U10" si="2">SUM(G2:S2)</f>
         <v>50.25</v>
       </c>
       <c r="V2" s="15">
-        <f t="shared" ref="V2:V9" si="3">SUM(F2, U2)</f>
+        <f t="shared" ref="V2:V10" si="3">SUM(F2, U2)</f>
         <v>980.58</v>
       </c>
     </row>
@@ -2610,667 +2643,740 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11</v>
+      </c>
+      <c r="E4" s="31">
+        <f t="shared" ref="E4" si="4">V4/D4</f>
+        <v>54.05</v>
+      </c>
+      <c r="F4" s="9">
+        <f>'Initial Buys'!AF40</f>
+        <v>594.54999999999995</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4" si="5">SUM(H4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" ref="U4" si="6">SUM(G4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="7">SUM(F4, U4)</f>
+        <v>594.54999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="6">
         <v>10.492000000000001</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
         <v>102.69919939001143</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="7">
         <f>'Initial Buys'!H40</f>
         <v>1020.89</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G5" s="18">
         <f>'2016'!U4</f>
         <v>39.58</v>
       </c>
-      <c r="H4" s="25">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
         <v>8.2899999999999991</v>
       </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
         <v>8.76</v>
       </c>
-      <c r="N4" s="25">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="P4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>0</v>
-      </c>
-      <c r="R4" s="25">
-        <v>0</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17">
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
         <f t="shared" si="1"/>
         <v>17.049999999999997</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U5" s="18">
         <f t="shared" si="2"/>
         <v>56.629999999999995</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V5" s="16">
         <f t="shared" si="3"/>
         <v>1077.52</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
-        <v>40.381999999999998</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="D6" s="34">
+        <v>40.710999999999999</v>
+      </c>
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
-        <v>40.164924966569266</v>
-      </c>
-      <c r="F5" s="7">
+        <v>40.207314976296338</v>
+      </c>
+      <c r="F6" s="36">
         <f>'Initial Buys'!K40</f>
         <v>1562.6100000000001</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G6" s="37">
         <f>'2016'!U5</f>
         <v>44.52</v>
       </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0</v>
-      </c>
-      <c r="K5" s="24">
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>14.81</v>
       </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="P5" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25">
-        <v>0</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>14.94</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0</v>
+      </c>
+      <c r="T6" s="37">
         <f t="shared" si="1"/>
-        <v>14.81</v>
-      </c>
-      <c r="U5" s="18">
+        <v>29.75</v>
+      </c>
+      <c r="U6" s="37">
         <f t="shared" si="2"/>
-        <v>59.330000000000005</v>
-      </c>
-      <c r="V5" s="16">
+        <v>74.27000000000001</v>
+      </c>
+      <c r="V6" s="38">
         <f t="shared" si="3"/>
-        <v>1621.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+        <v>1636.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="6">
         <v>25.283000000000001</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
         <v>32.47083020211209</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="7">
         <f>'Initial Buys'!N40</f>
         <v>811.94</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="18">
         <f>'2016'!U6</f>
         <v>2.99</v>
       </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
         <v>3.01</v>
       </c>
-      <c r="K6" s="24">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
         <v>3.02</v>
       </c>
-      <c r="N6" s="25">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>0</v>
-      </c>
-      <c r="R6" s="25">
-        <v>0</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0</v>
-      </c>
-      <c r="T6" s="17">
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="24">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
         <f t="shared" si="1"/>
         <v>6.0299999999999994</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U7" s="18">
         <f t="shared" si="2"/>
         <v>9.02</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V7" s="16">
         <f t="shared" si="3"/>
         <v>820.96</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6">
-        <v>11.215</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="D8" s="34">
+        <v>11.314</v>
+      </c>
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
-        <v>94.713330361123496</v>
-      </c>
-      <c r="F7" s="7">
+        <v>94.915149372458913</v>
+      </c>
+      <c r="F8" s="36">
         <f>'Initial Buys'!Q40</f>
         <v>1040.19</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G8" s="37">
         <f>'2016'!U7</f>
         <v>5.2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H8" s="25">
         <v>5.26</v>
       </c>
-      <c r="I7" s="24">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
         <v>11.56</v>
       </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25">
-        <v>0</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>11.66</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37">
         <f t="shared" si="1"/>
-        <v>16.82</v>
-      </c>
-      <c r="U7" s="18">
+        <v>28.48</v>
+      </c>
+      <c r="U8" s="37">
         <f t="shared" si="2"/>
-        <v>22.020000000000003</v>
-      </c>
-      <c r="V7" s="16">
-        <f>SUM(F7, U7)</f>
-        <v>1062.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+        <v>33.680000000000007</v>
+      </c>
+      <c r="V8" s="38">
+        <f>SUM(F8, U8)</f>
+        <v>1073.8700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
-        <v>19.052</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="D9" s="6">
+        <v>19.376999999999999</v>
+      </c>
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>49.400587864791099</v>
-      </c>
-      <c r="F8" s="9">
+        <v>49.496310058316567</v>
+      </c>
+      <c r="F9" s="7">
         <f>'Initial Buys'!T40</f>
         <v>840.48</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="18">
         <f>'2016'!U8</f>
         <v>83.11</v>
       </c>
-      <c r="H8" s="25">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
         <v>17.59</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>0</v>
-      </c>
-      <c r="R8" s="25">
-        <v>0</v>
-      </c>
-      <c r="S8" s="24">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17">
+      <c r="K9" s="24">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>17.91</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
         <f t="shared" si="1"/>
-        <v>17.59</v>
-      </c>
-      <c r="U8" s="17">
+        <v>35.5</v>
+      </c>
+      <c r="U9" s="18">
         <f t="shared" si="2"/>
-        <v>100.7</v>
-      </c>
-      <c r="V8" s="15">
+        <v>118.61</v>
+      </c>
+      <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>941.18000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+        <v>959.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="6">
-        <v>46.08</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D10" s="34">
+        <v>46.656999999999996</v>
+      </c>
+      <c r="E10" s="35">
         <f t="shared" si="0"/>
-        <v>38.566189236111107</v>
-      </c>
-      <c r="F9" s="7">
+        <v>38.573204449493112</v>
+      </c>
+      <c r="F10" s="36">
         <f>'Initial Buys'!W40</f>
         <v>1732.77</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G10" s="37">
         <f>'2016'!U9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
         <v>22.05</v>
       </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
         <v>22.31</v>
       </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>0</v>
-      </c>
-      <c r="R9" s="25">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>22.58</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="37">
         <f t="shared" si="1"/>
-        <v>44.36</v>
-      </c>
-      <c r="U9" s="18">
+        <v>66.94</v>
+      </c>
+      <c r="U10" s="37">
         <f t="shared" si="2"/>
-        <v>44.36</v>
-      </c>
-      <c r="V9" s="16">
+        <v>66.94</v>
+      </c>
+      <c r="V10" s="38">
         <f t="shared" si="3"/>
-        <v>1777.1299999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+        <v>1799.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="6">
         <v>15.164999999999999</v>
       </c>
-      <c r="E10" s="31">
-        <f t="shared" ref="E10" si="4">V10/D10</f>
+      <c r="E11" s="32">
+        <f t="shared" ref="E11" si="8">V11/D11</f>
         <v>53.165182987141449</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="7">
         <f>'Initial Buys'!AC40</f>
         <v>797.25</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
         <v>9</v>
       </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="17">
-        <f t="shared" ref="T10" si="5">SUM(H10:S10)</f>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
         <v>9</v>
       </c>
-      <c r="U10" s="17">
-        <f t="shared" ref="U10" si="6">SUM(G10:S10)</f>
+      <c r="U11" s="18">
+        <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
         <v>9</v>
       </c>
-      <c r="V10" s="15">
-        <f t="shared" ref="V10" si="7">SUM(F10, U10)</f>
+      <c r="V11" s="16">
+        <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
         <v>806.25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="34">
         <v>15.205</v>
       </c>
-      <c r="E11" s="32">
-        <f t="shared" ref="E11" si="8">V11/D11</f>
+      <c r="E12" s="35">
+        <f t="shared" ref="E12" si="12">V12/D12</f>
         <v>41.106872739230518</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="36">
         <f>'Initial Buys'!Z40</f>
         <v>614.25</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="25">
-        <v>0</v>
-      </c>
-      <c r="I11" s="24">
-        <v>0</v>
-      </c>
-      <c r="J11" s="25">
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
         <v>5.08</v>
       </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
         <v>5.7</v>
       </c>
-      <c r="N11" s="25">
-        <v>0</v>
-      </c>
-      <c r="O11" s="24">
-        <v>0</v>
-      </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24">
-        <v>0</v>
-      </c>
-      <c r="T11" s="18">
-        <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37">
+        <f t="shared" ref="T12" si="13">SUM(H12:S12)</f>
         <v>10.780000000000001</v>
       </c>
-      <c r="U11" s="18">
-        <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
+      <c r="U12" s="37">
+        <f t="shared" ref="U12" si="14">SUM(G12:S12)</f>
         <v>10.780000000000001</v>
       </c>
-      <c r="V11" s="16">
-        <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
+      <c r="V12" s="38">
+        <f t="shared" ref="V12" si="15">SUM(F12, U12)</f>
         <v>625.03</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12:V12" si="12">SUM(F2:F11)</f>
-        <v>10110.880000000001</v>
-      </c>
-      <c r="G12" s="30">
-        <f t="shared" si="12"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13:V13" si="16">SUM(F2:F12)</f>
+        <v>10705.43</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="16"/>
         <v>228.14999999999998</v>
       </c>
-      <c r="H12" s="29">
-        <f t="shared" si="12"/>
+      <c r="H13" s="29">
+        <f t="shared" si="16"/>
         <v>5.26</v>
       </c>
-      <c r="I12" s="30">
-        <f t="shared" si="12"/>
+      <c r="I13" s="30">
+        <f t="shared" si="16"/>
         <v>22.05</v>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" si="12"/>
+      <c r="J13" s="29">
+        <f t="shared" si="16"/>
         <v>49.69</v>
       </c>
-      <c r="K12" s="30">
-        <f t="shared" si="12"/>
+      <c r="K13" s="30">
+        <f t="shared" si="16"/>
         <v>26.37</v>
       </c>
-      <c r="L12" s="29">
-        <f t="shared" si="12"/>
+      <c r="L13" s="29">
+        <f t="shared" si="16"/>
         <v>22.31</v>
       </c>
-      <c r="M12" s="30">
-        <f t="shared" si="12"/>
-        <v>42.31</v>
-      </c>
-      <c r="N12" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="30">
-        <f t="shared" si="12"/>
-        <v>167.98999999999998</v>
-      </c>
-      <c r="U12" s="30">
-        <f t="shared" si="12"/>
-        <v>396.1400000000001</v>
-      </c>
-      <c r="V12" s="20">
-        <f t="shared" si="12"/>
-        <v>10507.02</v>
+      <c r="M13" s="30">
+        <f t="shared" si="16"/>
+        <v>60.220000000000006</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" si="16"/>
+        <v>26.6</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="16"/>
+        <v>22.58</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
+        <f t="shared" si="16"/>
+        <v>235.08</v>
+      </c>
+      <c r="U13" s="30">
+        <f t="shared" si="16"/>
+        <v>463.23</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="16"/>
+        <v>11168.660000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2396,7 +2396,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,11 +2504,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>27.971</v>
+        <v>28.184000000000001</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E10" si="0">V2/D2</f>
-        <v>35.057023345607952</v>
+        <v>35.109636673289813</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="25">
-        <v>0</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="Q2" s="24">
         <v>0</v>
@@ -2556,15 +2556,15 @@
       </c>
       <c r="T2" s="17">
         <f t="shared" ref="T2:T10" si="1">SUM(H2:S2)</f>
-        <v>17.700000000000003</v>
+        <v>26.650000000000002</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" ref="U2:U10" si="2">SUM(G2:S2)</f>
-        <v>50.25</v>
+        <v>59.2</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V10" si="3">SUM(F2, U2)</f>
-        <v>980.58</v>
+        <v>989.53000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2873,11 +2873,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>25.283000000000001</v>
+        <v>25.428000000000001</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>32.47083020211209</v>
+        <v>32.409941796444862</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!N40</f>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="25">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="Q7" s="24">
         <v>0</v>
@@ -2925,15 +2925,15 @@
       </c>
       <c r="T7" s="18">
         <f t="shared" si="1"/>
-        <v>6.0299999999999994</v>
+        <v>9.19</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="2"/>
-        <v>9.02</v>
+        <v>12.18</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="3"/>
-        <v>820.96</v>
+        <v>824.12</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="P13" s="29">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="16"/>
@@ -3368,15 +3368,15 @@
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>235.08</v>
+        <v>247.19</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>463.23</v>
+        <v>475.34000000000003</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11168.660000000002</v>
+        <v>11180.770000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2396,7 +2396,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,11 +2578,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.606999999999999</v>
+        <v>14.724</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>54.372561100842056</v>
+        <v>54.416598750339581</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="25">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="Q3" s="24">
         <v>0</v>
@@ -2630,15 +2630,15 @@
       </c>
       <c r="T3" s="18">
         <f t="shared" si="1"/>
-        <v>13.850000000000001</v>
+        <v>20.86</v>
       </c>
       <c r="U3" s="18">
         <f t="shared" si="2"/>
-        <v>34.050000000000004</v>
+        <v>41.06</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" si="3"/>
-        <v>794.21999999999991</v>
+        <v>801.23</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2725,11 +2725,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="6">
-        <v>10.492000000000001</v>
+        <v>10.558999999999999</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>102.69919939001143</v>
+        <v>102.88190169523629</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!H40</f>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="25">
-        <v>0</v>
+        <v>8.81</v>
       </c>
       <c r="Q5" s="24">
         <v>0</v>
@@ -2777,15 +2777,15 @@
       </c>
       <c r="T5" s="18">
         <f t="shared" si="1"/>
-        <v>17.049999999999997</v>
+        <v>25.86</v>
       </c>
       <c r="U5" s="18">
         <f t="shared" si="2"/>
-        <v>56.629999999999995</v>
+        <v>65.44</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" si="3"/>
-        <v>1077.52</v>
+        <v>1086.33</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3169,11 +3169,11 @@
         <v>52</v>
       </c>
       <c r="D11" s="6">
-        <v>15.164999999999999</v>
+        <v>15.326000000000001</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" ref="E11" si="8">V11/D11</f>
-        <v>53.165182987141449</v>
+        <v>53.220018269607202</v>
       </c>
       <c r="F11" s="7">
         <f>'Initial Buys'!AC40</f>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="25">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Q11" s="24">
         <v>0</v>
@@ -3220,15 +3220,15 @@
       </c>
       <c r="T11" s="18">
         <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
-        <v>9</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
-        <v>9</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
-        <v>806.25</v>
+        <v>815.65</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3242,11 +3242,11 @@
         <v>6</v>
       </c>
       <c r="D12" s="34">
-        <v>15.205</v>
+        <v>15.31</v>
       </c>
       <c r="E12" s="35">
         <f t="shared" ref="E12" si="12">V12/D12</f>
-        <v>41.106872739230518</v>
+        <v>41.230568256041799</v>
       </c>
       <c r="F12" s="36">
         <f>'Initial Buys'!Z40</f>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="25">
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="Q12" s="24">
         <v>0</v>
@@ -3293,15 +3293,15 @@
       </c>
       <c r="T12" s="37">
         <f t="shared" ref="T12" si="13">SUM(H12:S12)</f>
-        <v>10.780000000000001</v>
+        <v>16.990000000000002</v>
       </c>
       <c r="U12" s="37">
         <f t="shared" ref="U12" si="14">SUM(G12:S12)</f>
-        <v>10.780000000000001</v>
+        <v>16.990000000000002</v>
       </c>
       <c r="V12" s="38">
         <f t="shared" ref="V12" si="15">SUM(F12, U12)</f>
-        <v>625.03</v>
+        <v>631.24</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="P13" s="29">
         <f t="shared" si="16"/>
-        <v>12.11</v>
+        <v>43.54</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="16"/>
@@ -3368,15 +3368,15 @@
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>247.19</v>
+        <v>278.62</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>475.34000000000003</v>
+        <v>506.77000000000004</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11180.770000000002</v>
+        <v>11212.2</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2396,7 +2396,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,11 +3021,11 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>19.376999999999999</v>
+        <v>19.704999999999998</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>49.496310058316567</v>
+        <v>49.596549099213398</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!T40</f>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="25">
-        <v>0</v>
+        <v>18.21</v>
       </c>
       <c r="Q9" s="24">
         <v>0</v>
@@ -3073,15 +3073,15 @@
       </c>
       <c r="T9" s="18">
         <f t="shared" si="1"/>
-        <v>35.5</v>
+        <v>53.71</v>
       </c>
       <c r="U9" s="18">
         <f t="shared" si="2"/>
-        <v>118.61</v>
+        <v>136.82</v>
       </c>
       <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>959.09</v>
+        <v>977.3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="P13" s="29">
         <f t="shared" si="16"/>
-        <v>43.54</v>
+        <v>61.75</v>
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="16"/>
@@ -3368,15 +3368,15 @@
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>278.62</v>
+        <v>296.83</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>506.77000000000004</v>
+        <v>524.98</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11212.2</v>
+        <v>11230.41</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -649,8 +649,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     <col min="27" max="27" width="6.5703125" customWidth="1"/>
     <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.140625" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.42578125" customWidth="1"/>
   </cols>
@@ -853,6 +853,12 @@
         <v>654.66</v>
       </c>
       <c r="Z3" s="19"/>
+      <c r="AE3" s="4">
+        <v>43028</v>
+      </c>
+      <c r="AF3">
+        <v>575.29999999999995</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="W4" s="5"/>
@@ -1006,7 +1012,7 @@
       </c>
       <c r="AF40" s="19">
         <f>SUM(AF2:AF39)</f>
-        <v>594.54999999999995</v>
+        <v>1169.8499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2396,7 +2402,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,15 +2658,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="8">
-        <v>11</v>
+        <v>22.106000000000002</v>
       </c>
       <c r="E4" s="31">
         <f t="shared" ref="E4" si="4">V4/D4</f>
-        <v>54.05</v>
+        <v>53.163846919388398</v>
       </c>
       <c r="F4" s="9">
         <f>'Initial Buys'!AF40</f>
-        <v>594.54999999999995</v>
+        <v>1169.8499999999999</v>
       </c>
       <c r="G4" s="17">
         <v>0</v>
@@ -2696,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="R4" s="25">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="S4" s="24">
         <v>0</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" ref="T4" si="5">SUM(H4:S4)</f>
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" ref="U4" si="6">SUM(G4:S4)</f>
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="V4" s="15">
         <f t="shared" ref="V4" si="7">SUM(F4, U4)</f>
-        <v>594.54999999999995</v>
+        <v>1175.24</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -2799,11 +2805,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="34">
-        <v>40.710999999999999</v>
+        <v>41.045999999999999</v>
       </c>
       <c r="E6" s="35">
-        <f t="shared" si="0"/>
-        <v>40.207314976296338</v>
+        <f>V6/D6</f>
+        <v>40.246065390050191</v>
       </c>
       <c r="F6" s="36">
         <f>'Initial Buys'!K40</f>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="24">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="R6" s="25">
         <v>0</v>
@@ -2851,15 +2857,15 @@
       </c>
       <c r="T6" s="37">
         <f t="shared" si="1"/>
-        <v>29.75</v>
+        <v>44.81</v>
       </c>
       <c r="U6" s="37">
         <f t="shared" si="2"/>
-        <v>74.27000000000001</v>
+        <v>89.330000000000013</v>
       </c>
       <c r="V6" s="38">
         <f t="shared" si="3"/>
-        <v>1636.88</v>
+        <v>1651.94</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2947,11 +2953,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="34">
-        <v>11.314</v>
+        <v>11.42</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" si="0"/>
-        <v>94.915149372458913</v>
+        <v>95.094570928196148</v>
       </c>
       <c r="F8" s="36">
         <f>'Initial Buys'!Q40</f>
@@ -2989,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="24">
-        <v>0</v>
+        <v>12.11</v>
       </c>
       <c r="R8" s="25">
         <v>0</v>
@@ -2999,15 +3005,15 @@
       </c>
       <c r="T8" s="37">
         <f t="shared" si="1"/>
-        <v>28.48</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="U8" s="37">
         <f t="shared" si="2"/>
-        <v>33.680000000000007</v>
+        <v>45.790000000000006</v>
       </c>
       <c r="V8" s="38">
         <f>SUM(F8, U8)</f>
-        <v>1073.8700000000001</v>
+        <v>1085.98</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3095,11 +3101,11 @@
         <v>54</v>
       </c>
       <c r="D10" s="34">
-        <v>46.656999999999996</v>
+        <v>47.332999999999998</v>
       </c>
       <c r="E10" s="35">
         <f t="shared" si="0"/>
-        <v>38.573204449493112</v>
+        <v>38.505271163881439</v>
       </c>
       <c r="F10" s="36">
         <f>'Initial Buys'!W40</f>
@@ -3140,22 +3146,22 @@
         <v>0</v>
       </c>
       <c r="R10" s="25">
-        <v>0</v>
+        <v>22.86</v>
       </c>
       <c r="S10" s="24">
         <v>0</v>
       </c>
       <c r="T10" s="37">
         <f t="shared" si="1"/>
-        <v>66.94</v>
+        <v>89.8</v>
       </c>
       <c r="U10" s="37">
         <f t="shared" si="2"/>
-        <v>66.94</v>
+        <v>89.8</v>
       </c>
       <c r="V10" s="38">
         <f t="shared" si="3"/>
-        <v>1799.71</v>
+        <v>1822.57</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3312,7 +3318,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28">
         <f t="shared" ref="F13:V13" si="16">SUM(F2:F12)</f>
-        <v>10705.43</v>
+        <v>11280.730000000001</v>
       </c>
       <c r="G13" s="30">
         <f t="shared" si="16"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="Q13" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>27.17</v>
       </c>
       <c r="R13" s="29">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>28.25</v>
       </c>
       <c r="S13" s="30">
         <f t="shared" si="16"/>
@@ -3368,15 +3374,15 @@
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>296.83</v>
+        <v>352.25</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>524.98</v>
+        <v>580.4</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11230.41</v>
+        <v>11861.13</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,11 +2879,11 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>25.428000000000001</v>
+        <v>25.56</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>32.409941796444862</v>
+        <v>32.366979655712058</v>
       </c>
       <c r="F7" s="7">
         <f>'Initial Buys'!N40</f>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="S7" s="24">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="T7" s="18">
         <f t="shared" si="1"/>
-        <v>9.19</v>
+        <v>12.37</v>
       </c>
       <c r="U7" s="18">
         <f t="shared" si="2"/>
-        <v>12.18</v>
+        <v>15.36</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="3"/>
-        <v>824.12</v>
+        <v>827.30000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
       </c>
       <c r="S13" s="30">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>352.25</v>
+        <v>355.43</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>580.4</v>
+        <v>583.58000000000004</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11861.13</v>
+        <v>11864.31</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,11 +2510,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>28.184000000000001</v>
+        <v>28.404</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E10" si="0">V2/D2</f>
-        <v>35.109636673289813</v>
+        <v>35.155259822560204</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
@@ -2558,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="24">
-        <v>0</v>
+        <v>9.02</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" ref="T2:T10" si="1">SUM(H2:S2)</f>
-        <v>26.650000000000002</v>
+        <v>35.67</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" ref="U2:U10" si="2">SUM(G2:S2)</f>
-        <v>59.2</v>
+        <v>68.22</v>
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V10" si="3">SUM(F2, U2)</f>
-        <v>989.53000000000009</v>
+        <v>998.55000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2584,11 +2584,11 @@
         <v>8</v>
       </c>
       <c r="D3" s="6">
-        <v>14.724</v>
+        <v>14.833</v>
       </c>
       <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>54.416598750339581</v>
+        <v>54.49807860850806</v>
       </c>
       <c r="F3" s="7">
         <f>'Initial Buys'!E40</f>
@@ -2632,19 +2632,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="24">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="T3" s="18">
         <f t="shared" si="1"/>
-        <v>20.86</v>
+        <v>28</v>
       </c>
       <c r="U3" s="18">
         <f t="shared" si="2"/>
-        <v>41.06</v>
+        <v>48.2</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" si="3"/>
-        <v>801.23</v>
+        <v>808.37</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -3175,11 +3175,11 @@
         <v>52</v>
       </c>
       <c r="D11" s="6">
-        <v>15.326000000000001</v>
+        <v>15.481</v>
       </c>
       <c r="E11" s="32">
         <f t="shared" ref="E11" si="8">V11/D11</f>
-        <v>53.220018269607202</v>
+        <v>53.300820360441833</v>
       </c>
       <c r="F11" s="7">
         <f>'Initial Buys'!AC40</f>
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="S11" s="24">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="T11" s="18">
         <f t="shared" ref="T11" si="9">SUM(H11:S11)</f>
-        <v>18.399999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="U11" s="18">
         <f t="shared" ref="U11" si="10">SUM(G11:S11)</f>
-        <v>18.399999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" ref="V11" si="11">SUM(F11, U11)</f>
-        <v>815.65</v>
+        <v>825.15</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
       </c>
       <c r="S13" s="30">
         <f t="shared" si="16"/>
-        <v>3.18</v>
+        <v>28.84</v>
       </c>
       <c r="T13" s="30">
         <f t="shared" si="16"/>
-        <v>355.43</v>
+        <v>381.09000000000003</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="16"/>
-        <v>583.58000000000004</v>
+        <v>609.24</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="16"/>
-        <v>11864.31</v>
+        <v>11889.97</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2402,7 +2402,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,11 +2731,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="6">
-        <v>10.558999999999999</v>
+        <v>10.622</v>
       </c>
       <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>102.88190169523629</v>
+        <v>103.10675955563924</v>
       </c>
       <c r="F5" s="7">
         <f>'Initial Buys'!H40</f>
@@ -2779,19 +2779,19 @@
         <v>0</v>
       </c>
       <c r="S5" s="24">
-        <v>0</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="T5" s="18">
         <f t="shared" si="1"/>
-        <v>25.86</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="U5" s="18">
         <f t="shared" si="2"/>
-        <v>65.44</v>
+        <v>74.31</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" si="3"/>
-        <v>1086.33</v>
+        <v>1095.2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2805,11 +2805,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="34">
-        <v>41.045999999999999</v>
+        <v>41.378</v>
       </c>
       <c r="E6" s="35">
         <f>V6/D6</f>
-        <v>40.246065390050191</v>
+        <v>40.290250857943839</v>
       </c>
       <c r="F6" s="36">
         <f>'Initial Buys'!K40</f>
@@ -2853,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="S6" s="24">
-        <v>0</v>
+        <v>15.19</v>
       </c>
       <c r="T6" s="37">
         <f t="shared" si="1"/>
-        <v>44.81</v>
+        <v>60</v>
       </c>
       <c r="U6" s="37">
         <f t="shared" si="2"/>
-        <v>89.330000000000013</v>
+        <v>104.52000000000001</v>
       </c>
       <c r="V6" s="38">
         <f t="shared" si="3"/>
-        <v>1651.94</v>
+        <v>1667.13</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3248,11 +3248,11 @@
         <v>6</v>
       </c>
       <c r="D12" s="34">
-        <v>15.31</v>
+        <v>15.423999999999999</v>
       </c>
       <c r="E12" s="35">
-        <f t="shared" ref="E12" si="12">V12/D12</f>
-        <v>41.230568256041799</v>
+        <f>V12/D12</f>
+        <v>41.339470954356848</v>
       </c>
       <c r="F12" s="36">
         <f>'Initial Buys'!Z40</f>
@@ -3295,19 +3295,19 @@
         <v>0</v>
       </c>
       <c r="S12" s="24">
-        <v>0</v>
+        <v>6.38</v>
       </c>
       <c r="T12" s="37">
-        <f t="shared" ref="T12" si="13">SUM(H12:S12)</f>
-        <v>16.990000000000002</v>
+        <f t="shared" ref="T12" si="12">SUM(H12:S12)</f>
+        <v>23.37</v>
       </c>
       <c r="U12" s="37">
-        <f t="shared" ref="U12" si="14">SUM(G12:S12)</f>
-        <v>16.990000000000002</v>
+        <f t="shared" ref="U12" si="13">SUM(G12:S12)</f>
+        <v>23.37</v>
       </c>
       <c r="V12" s="38">
-        <f t="shared" ref="V12" si="15">SUM(F12, U12)</f>
-        <v>631.24</v>
+        <f t="shared" ref="V12" si="14">SUM(F12, U12)</f>
+        <v>637.62</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3317,72 +3317,72 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28">
-        <f t="shared" ref="F13:V13" si="16">SUM(F2:F12)</f>
+        <f t="shared" ref="F13:V13" si="15">SUM(F2:F12)</f>
         <v>11280.730000000001</v>
       </c>
       <c r="G13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>228.14999999999998</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5.26</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>22.05</v>
       </c>
       <c r="J13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>49.69</v>
       </c>
       <c r="K13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>26.37</v>
       </c>
       <c r="L13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>22.31</v>
       </c>
       <c r="M13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>60.220000000000006</v>
       </c>
       <c r="N13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>26.6</v>
       </c>
       <c r="O13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>22.58</v>
       </c>
       <c r="P13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>61.75</v>
       </c>
       <c r="Q13" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>27.17</v>
       </c>
       <c r="R13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>28.25</v>
       </c>
       <c r="S13" s="30">
-        <f t="shared" si="16"/>
-        <v>28.84</v>
+        <f t="shared" si="15"/>
+        <v>59.28</v>
       </c>
       <c r="T13" s="30">
-        <f t="shared" si="16"/>
-        <v>381.09000000000003</v>
+        <f t="shared" si="15"/>
+        <v>411.53</v>
       </c>
       <c r="U13" s="30">
-        <f t="shared" si="16"/>
-        <v>609.24</v>
+        <f t="shared" si="15"/>
+        <v>639.67999999999995</v>
       </c>
       <c r="V13" s="20">
-        <f t="shared" si="16"/>
-        <v>11889.97</v>
+        <f t="shared" si="15"/>
+        <v>11920.41</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -650,12 +650,12 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -834,6 +834,12 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43097</v>
+      </c>
+      <c r="B3">
+        <v>601.95000000000005</v>
+      </c>
       <c r="J3" s="4">
         <v>42696</v>
       </c>
@@ -972,7 +978,7 @@
     <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <f>SUM(B2:B39)</f>
-        <v>930.33</v>
+        <v>1532.2800000000002</v>
       </c>
       <c r="E40" s="19">
         <f>SUM(E2:E39)</f>
@@ -2402,7 +2408,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,15 +2516,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>28.404</v>
+        <v>43.404000000000003</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E10" si="0">V2/D2</f>
-        <v>35.155259822560204</v>
+        <v>36.874481614597734</v>
       </c>
       <c r="F2" s="9">
         <f>'Initial Buys'!B40</f>
-        <v>930.33</v>
+        <v>1532.2800000000002</v>
       </c>
       <c r="G2" s="17">
         <f>'2016'!U2</f>
@@ -2570,7 +2576,7 @@
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V10" si="3">SUM(F2, U2)</f>
-        <v>998.55000000000007</v>
+        <v>1600.5000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3318,7 +3324,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28">
         <f t="shared" ref="F13:V13" si="15">SUM(F2:F12)</f>
-        <v>11280.730000000001</v>
+        <v>11882.680000000002</v>
       </c>
       <c r="G13" s="30">
         <f t="shared" si="15"/>
@@ -3382,7 +3388,7 @@
       </c>
       <c r="V13" s="20">
         <f t="shared" si="15"/>
-        <v>11920.41</v>
+        <v>12522.36</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,11 +3033,11 @@
         <v>22</v>
       </c>
       <c r="D9" s="6">
-        <v>19.704999999999998</v>
+        <v>20.004000000000001</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>49.596549099213398</v>
+        <v>49.78104379124175</v>
       </c>
       <c r="F9" s="7">
         <f>'Initial Buys'!T40</f>
@@ -3081,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="24">
-        <v>0</v>
+        <v>18.52</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="1"/>
-        <v>53.71</v>
+        <v>72.23</v>
       </c>
       <c r="U9" s="18">
         <f t="shared" si="2"/>
-        <v>136.82</v>
+        <v>155.34</v>
       </c>
       <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>977.3</v>
+        <v>995.82</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3376,19 +3376,19 @@
       </c>
       <c r="S13" s="30">
         <f t="shared" si="15"/>
-        <v>59.28</v>
+        <v>77.8</v>
       </c>
       <c r="T13" s="30">
         <f t="shared" si="15"/>
-        <v>411.53</v>
+        <v>430.05</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="15"/>
-        <v>639.67999999999995</v>
+        <v>658.19999999999993</v>
       </c>
       <c r="V13" s="20">
         <f t="shared" si="15"/>
-        <v>12522.36</v>
+        <v>12540.880000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DividendLiberty/Suzie's IRA.xlsx
+++ b/DividendLiberty/Suzie's IRA.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Buys" sheetId="3" r:id="rId1"/>
     <sheet name="2015" sheetId="5" r:id="rId2"/>
     <sheet name="2016" sheetId="2" r:id="rId3"/>
     <sheet name="2017" sheetId="4" r:id="rId4"/>
+    <sheet name="2018" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="57">
   <si>
     <t>Symbols</t>
   </si>
@@ -2407,8 +2408,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,11 +2521,10 @@
       </c>
       <c r="E2" s="31">
         <f t="shared" ref="E2:E10" si="0">V2/D2</f>
-        <v>36.874481614597734</v>
+        <v>36.874481614597727</v>
       </c>
       <c r="F2" s="9">
-        <f>'Initial Buys'!B40</f>
-        <v>1532.2800000000002</v>
+        <v>1532.28</v>
       </c>
       <c r="G2" s="17">
         <f>'2016'!U2</f>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="V2" s="15">
         <f t="shared" ref="V2:V10" si="3">SUM(F2, U2)</f>
-        <v>1600.5000000000002</v>
+        <v>1600.5</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,6 @@
         <v>54.49807860850806</v>
       </c>
       <c r="F3" s="7">
-        <f>'Initial Buys'!E40</f>
         <v>760.17</v>
       </c>
       <c r="G3" s="18">
@@ -2671,7 +2670,6 @@
         <v>53.163846919388398</v>
       </c>
       <c r="F4" s="9">
-        <f>'Initial Buys'!AF40</f>
         <v>1169.8499999999999</v>
       </c>
       <c r="G4" s="17">
@@ -2744,7 +2742,6 @@
         <v>103.10675955563924</v>
       </c>
       <c r="F5" s="7">
-        <f>'Initial Buys'!H40</f>
         <v>1020.89</v>
       </c>
       <c r="G5" s="18">
@@ -2815,11 +2812,10 @@
       </c>
       <c r="E6" s="35">
         <f>V6/D6</f>
-        <v>40.290250857943839</v>
+        <v>40.290250857943832</v>
       </c>
       <c r="F6" s="36">
-        <f>'Initial Buys'!K40</f>
-        <v>1562.6100000000001</v>
+        <v>1562.61</v>
       </c>
       <c r="G6" s="37">
         <f>'2016'!U5</f>
@@ -2871,7 +2867,7 @@
       </c>
       <c r="V6" s="38">
         <f t="shared" si="3"/>
-        <v>1667.13</v>
+        <v>1667.1299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2892,7 +2888,6 @@
         <v>32.366979655712058</v>
       </c>
       <c r="F7" s="7">
-        <f>'Initial Buys'!N40</f>
         <v>811.94</v>
       </c>
       <c r="G7" s="18">
@@ -2966,7 +2961,6 @@
         <v>95.094570928196148</v>
       </c>
       <c r="F8" s="36">
-        <f>'Initial Buys'!Q40</f>
         <v>1040.19</v>
       </c>
       <c r="G8" s="37">
@@ -3040,7 +3034,6 @@
         <v>49.78104379124175</v>
       </c>
       <c r="F9" s="7">
-        <f>'Initial Buys'!T40</f>
         <v>840.48</v>
       </c>
       <c r="G9" s="18">
@@ -3114,7 +3107,6 @@
         <v>38.505271163881439</v>
       </c>
       <c r="F10" s="36">
-        <f>'Initial Buys'!W40</f>
         <v>1732.77</v>
       </c>
       <c r="G10" s="37">
@@ -3188,7 +3180,6 @@
         <v>53.300820360441833</v>
       </c>
       <c r="F11" s="7">
-        <f>'Initial Buys'!AC40</f>
         <v>797.25</v>
       </c>
       <c r="G11" s="18">
@@ -3261,7 +3252,6 @@
         <v>41.339470954356848</v>
       </c>
       <c r="F12" s="36">
-        <f>'Initial Buys'!Z40</f>
         <v>614.25</v>
       </c>
       <c r="G12" s="37">
@@ -3324,7 +3314,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28">
         <f t="shared" ref="F13:V13" si="15">SUM(F2:F12)</f>
-        <v>11882.680000000002</v>
+        <v>11882.68</v>
       </c>
       <c r="G13" s="30">
         <f t="shared" si="15"/>
@@ -3388,11 +3378,996 @@
       </c>
       <c r="V13" s="20">
         <f t="shared" si="15"/>
-        <v>12540.880000000001</v>
+        <v>12540.88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43.404000000000003</v>
+      </c>
+      <c r="E2" s="31">
+        <f t="shared" ref="E2:E11" si="0">V2/D2</f>
+        <v>36.874481614597734</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'Initial Buys'!B40</f>
+        <v>1532.2800000000002</v>
+      </c>
+      <c r="G2" s="17">
+        <f>'2017'!U2</f>
+        <v>68.22</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>0</v>
+      </c>
+      <c r="O2" s="24">
+        <v>0</v>
+      </c>
+      <c r="P2" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25">
+        <v>0</v>
+      </c>
+      <c r="S2" s="24">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <f t="shared" ref="T2:T10" si="1">SUM(H2:S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <f t="shared" ref="U2:U10" si="2">SUM(G2:S2)</f>
+        <v>68.22</v>
+      </c>
+      <c r="V2" s="15">
+        <f t="shared" ref="V2:V12" si="3">SUM(F2, U2)</f>
+        <v>1600.5000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>14.833</v>
+      </c>
+      <c r="E3" s="32">
+        <f t="shared" si="0"/>
+        <v>54.49807860850806</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'Initial Buys'!E40</f>
+        <v>760.17</v>
+      </c>
+      <c r="G3" s="18">
+        <f>'2017'!U3</f>
+        <v>48.2</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24">
+        <v>0</v>
+      </c>
+      <c r="T3" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <f t="shared" si="2"/>
+        <v>48.2</v>
+      </c>
+      <c r="V3" s="16">
+        <f t="shared" si="3"/>
+        <v>808.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>22.106000000000002</v>
+      </c>
+      <c r="E4" s="31">
+        <f t="shared" si="0"/>
+        <v>53.163846919388398</v>
+      </c>
+      <c r="F4" s="9">
+        <f>'Initial Buys'!AF40</f>
+        <v>1169.8499999999999</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'2017'!U4</f>
+        <v>5.39</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4" si="4">SUM(H4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" ref="U4" si="5">SUM(G4:S4)</f>
+        <v>5.39</v>
+      </c>
+      <c r="V4" s="15">
+        <f t="shared" si="3"/>
+        <v>1175.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10.622</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="0"/>
+        <v>103.10675955563924</v>
+      </c>
+      <c r="F5" s="7">
+        <f>'Initial Buys'!H40</f>
+        <v>1020.89</v>
+      </c>
+      <c r="G5" s="18">
+        <f>'2017'!U5</f>
+        <v>74.31</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <f t="shared" si="2"/>
+        <v>74.31</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="3"/>
+        <v>1095.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="34">
+        <v>41.378</v>
+      </c>
+      <c r="E6" s="35">
+        <f>V6/D6</f>
+        <v>40.290250857943839</v>
+      </c>
+      <c r="F6" s="36">
+        <f>'Initial Buys'!K40</f>
+        <v>1562.6100000000001</v>
+      </c>
+      <c r="G6" s="37">
+        <f>'2017'!U6</f>
+        <v>104.52000000000001</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0</v>
+      </c>
+      <c r="T6" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="37">
+        <f t="shared" si="2"/>
+        <v>104.52000000000001</v>
+      </c>
+      <c r="V6" s="38">
+        <f t="shared" si="3"/>
+        <v>1667.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>25.56</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" si="0"/>
+        <v>32.366979655712058</v>
+      </c>
+      <c r="F7" s="7">
+        <f>'Initial Buys'!N40</f>
+        <v>811.94</v>
+      </c>
+      <c r="G7" s="18">
+        <f>'2017'!U7</f>
+        <v>15.36</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="24">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <f t="shared" si="2"/>
+        <v>15.36</v>
+      </c>
+      <c r="V7" s="16">
+        <f t="shared" si="3"/>
+        <v>827.30000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34">
+        <v>11.536</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
+        <v>95.197642163661584</v>
+      </c>
+      <c r="F8" s="36">
+        <f>'Initial Buys'!Q40</f>
+        <v>1040.19</v>
+      </c>
+      <c r="G8" s="37">
+        <f>'2017'!U8</f>
+        <v>45.790000000000006</v>
+      </c>
+      <c r="H8" s="25">
+        <v>12.22</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37">
+        <f t="shared" si="1"/>
+        <v>12.22</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="2"/>
+        <v>58.010000000000005</v>
+      </c>
+      <c r="V8" s="38">
+        <f>SUM(F8, U8)</f>
+        <v>1098.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20.004000000000001</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="0"/>
+        <v>49.78104379124175</v>
+      </c>
+      <c r="F9" s="7">
+        <f>'Initial Buys'!T40</f>
+        <v>840.48</v>
+      </c>
+      <c r="G9" s="18">
+        <f>'2017'!U9</f>
+        <v>155.34</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="24">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="2"/>
+        <v>155.34</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" si="3"/>
+        <v>995.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="34">
+        <v>47.332999999999998</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="0"/>
+        <v>38.505271163881439</v>
+      </c>
+      <c r="F10" s="36">
+        <f>'Initial Buys'!W40</f>
+        <v>1732.77</v>
+      </c>
+      <c r="G10" s="37">
+        <f>'2017'!U10</f>
+        <v>89.8</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="2"/>
+        <v>89.8</v>
+      </c>
+      <c r="V10" s="38">
+        <f t="shared" si="3"/>
+        <v>1822.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6">
+        <v>15.481</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>53.300820360441833</v>
+      </c>
+      <c r="F11" s="7">
+        <f>'Initial Buys'!AC40</f>
+        <v>797.25</v>
+      </c>
+      <c r="G11" s="18">
+        <f>'2017'!U11</f>
+        <v>27.9</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" ref="T11" si="6">SUM(H11:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" ref="U11" si="7">SUM(G11:S11)</f>
+        <v>27.9</v>
+      </c>
+      <c r="V11" s="16">
+        <f t="shared" si="3"/>
+        <v>825.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="34">
+        <v>15.423999999999999</v>
+      </c>
+      <c r="E12" s="35">
+        <f>V12/D12</f>
+        <v>41.339470954356848</v>
+      </c>
+      <c r="F12" s="36">
+        <f>'Initial Buys'!Z40</f>
+        <v>614.25</v>
+      </c>
+      <c r="G12" s="37">
+        <f>'2017'!U12</f>
+        <v>23.37</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="24">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37">
+        <f t="shared" ref="T12" si="8">SUM(H12:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" ref="U12" si="9">SUM(G12:S12)</f>
+        <v>23.37</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="3"/>
+        <v>637.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13:V13" si="10">SUM(F2:F12)</f>
+        <v>11882.680000000002</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="10"/>
+        <v>658.19999999999993</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="10"/>
+        <v>12.22</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="30">
+        <f t="shared" si="10"/>
+        <v>12.22</v>
+      </c>
+      <c r="U13" s="30">
+        <f t="shared" si="10"/>
+        <v>670.42</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="10"/>
+        <v>12553.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>